--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>372212.9197677613</v>
+        <v>369724.0469570275</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673425</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>344.2204013002518</v>
+        <v>344.2204013002516</v>
       </c>
       <c r="C11" t="n">
-        <v>326.7594514077787</v>
+        <v>326.7594514077786</v>
       </c>
       <c r="D11" t="n">
-        <v>316.1696012574541</v>
+        <v>316.169601257454</v>
       </c>
       <c r="E11" t="n">
-        <v>343.416929709033</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>81.00220212795097</v>
+        <v>372.6330561788417</v>
       </c>
       <c r="H11" t="n">
-        <v>258.3962588871428</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>11.72896909311292</v>
+        <v>11.7289690931126</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>75.79628804931193</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>166.3884643413131</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>212.4997132667624</v>
       </c>
       <c r="V11" t="n">
-        <v>289.2388181069061</v>
+        <v>289.238818106906</v>
       </c>
       <c r="W11" t="n">
-        <v>310.7275283541842</v>
+        <v>310.7275283541841</v>
       </c>
       <c r="X11" t="n">
-        <v>331.2176603152402</v>
+        <v>331.2176603152401</v>
       </c>
       <c r="Y11" t="n">
-        <v>347.7244982928248</v>
+        <v>203.2223671807201</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>128.0197432866385</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>134.1950586250869</v>
+        <v>134.1950586250868</v>
       </c>
       <c r="D12" t="n">
-        <v>108.9316252014099</v>
+        <v>108.9316252014098</v>
       </c>
       <c r="E12" t="n">
-        <v>119.1316400921721</v>
+        <v>119.131640092172</v>
       </c>
       <c r="F12" t="n">
-        <v>106.5557720301551</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>130.1893218280016</v>
+        <v>114.6337350959969</v>
       </c>
       <c r="H12" t="n">
-        <v>90.75836308184007</v>
+        <v>90.75836308184006</v>
       </c>
       <c r="I12" t="n">
-        <v>22.95785363122043</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.609766986072998</v>
+        <v>7.609766986072856</v>
       </c>
       <c r="S12" t="n">
-        <v>130.377340636095</v>
+        <v>130.3773406360949</v>
       </c>
       <c r="T12" t="n">
         <v>191.2013147161072</v>
@@ -1515,7 +1515,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>167.1692554140754</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>141.3185398187085</v>
+        <v>141.3185398187084</v>
       </c>
       <c r="C13" t="n">
-        <v>128.733380735399</v>
+        <v>128.7333807353989</v>
       </c>
       <c r="D13" t="n">
-        <v>110.1020326549835</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>107.9205222833403</v>
+        <v>107.9205222833402</v>
       </c>
       <c r="F13" t="n">
-        <v>106.9076076597024</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>127.6131923784189</v>
+        <v>95.03948611775355</v>
       </c>
       <c r="H13" t="n">
-        <v>107.1379958601998</v>
+        <v>107.1379958601997</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.95214767987309</v>
+        <v>54.95214767987288</v>
       </c>
       <c r="S13" t="n">
-        <v>153.0126807244091</v>
+        <v>153.012680724409</v>
       </c>
       <c r="T13" t="n">
-        <v>181.4663044295873</v>
+        <v>181.4663044295872</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>247.7038973596177</v>
       </c>
       <c r="V13" t="n">
-        <v>213.6242029605992</v>
+        <v>213.6242029605991</v>
       </c>
       <c r="W13" t="n">
-        <v>248.0095579733622</v>
+        <v>248.0095579733621</v>
       </c>
       <c r="X13" t="n">
-        <v>185.3167658100701</v>
+        <v>187.1962150258082</v>
       </c>
       <c r="Y13" t="n">
-        <v>180.071212988866</v>
+        <v>180.0712129888659</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>344.2204013002518</v>
+        <v>344.2204013002516</v>
       </c>
       <c r="C14" t="n">
-        <v>326.7594514077787</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>316.1696012574541</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>343.416929709033</v>
+        <v>343.4169297090328</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>368.3626053784825</v>
       </c>
       <c r="G14" t="n">
-        <v>372.6330561788419</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>258.3962588871428</v>
       </c>
       <c r="I14" t="n">
-        <v>11.72896909311292</v>
+        <v>11.72896909311294</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>75.79628804931215</v>
+        <v>75.79628804931211</v>
       </c>
       <c r="T14" t="n">
         <v>166.3884643413132</v>
       </c>
       <c r="U14" t="n">
-        <v>66.15074001957343</v>
+        <v>212.4997132667624</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>289.238818106906</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>310.7275283541841</v>
       </c>
       <c r="X14" t="n">
-        <v>331.2176603152402</v>
+        <v>331.2176603152401</v>
       </c>
       <c r="Y14" t="n">
-        <v>347.7244982928248</v>
+        <v>248.6086820501354</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>130.6990999071946</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>108.9316252014099</v>
+        <v>108.9316252014098</v>
       </c>
       <c r="E15" t="n">
-        <v>119.1316400921721</v>
+        <v>119.131640092172</v>
       </c>
       <c r="F15" t="n">
-        <v>106.5557720301551</v>
+        <v>106.5557720301549</v>
       </c>
       <c r="G15" t="n">
-        <v>96.60629183028986</v>
+        <v>96.60629183028976</v>
       </c>
       <c r="H15" t="n">
-        <v>90.75836308184007</v>
+        <v>90.75836308184009</v>
       </c>
       <c r="I15" t="n">
-        <v>22.95785363122043</v>
+        <v>18.02744326570061</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>7.60976698607314</v>
       </c>
       <c r="S15" t="n">
         <v>130.377340636095</v>
@@ -1746,7 +1746,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>213.1815427976907</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>141.3185398187085</v>
+        <v>141.3185398187084</v>
       </c>
       <c r="C16" t="n">
-        <v>128.733380735399</v>
+        <v>128.7333807353989</v>
       </c>
       <c r="D16" t="n">
-        <v>110.1020326549835</v>
+        <v>110.1020326549834</v>
       </c>
       <c r="E16" t="n">
-        <v>107.9205222833403</v>
+        <v>107.9205222833402</v>
       </c>
       <c r="F16" t="n">
-        <v>106.9076076597024</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>127.6131923784189</v>
+        <v>92.07544932296608</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.95214767987309</v>
+        <v>54.95214767987304</v>
       </c>
       <c r="S16" t="n">
-        <v>153.0126807244091</v>
+        <v>153.012680724409</v>
       </c>
       <c r="T16" t="n">
-        <v>181.4663044295873</v>
+        <v>181.4663044295872</v>
       </c>
       <c r="U16" t="n">
-        <v>247.7038973596178</v>
+        <v>247.7038973596177</v>
       </c>
       <c r="V16" t="n">
-        <v>213.6242029605992</v>
+        <v>213.6242029605991</v>
       </c>
       <c r="W16" t="n">
-        <v>248.0095579733622</v>
+        <v>248.0095579733621</v>
       </c>
       <c r="X16" t="n">
-        <v>187.1962150258083</v>
+        <v>187.1962150258082</v>
       </c>
       <c r="Y16" t="n">
-        <v>37.62586227370932</v>
+        <v>180.0712129888659</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C17" t="n">
-        <v>267.5881715429027</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>256.9983213925781</v>
+        <v>250.035455050093</v>
       </c>
       <c r="E17" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F17" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G17" t="n">
-        <v>313.4617763139658</v>
+        <v>313.4617763139657</v>
       </c>
       <c r="H17" t="n">
         <v>199.2249790222668</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>16.62500818443611</v>
+        <v>16.62500818443613</v>
       </c>
       <c r="T17" t="n">
         <v>107.2171844764372</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>153.3284334018864</v>
       </c>
       <c r="V17" t="n">
-        <v>108.8449337585319</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W17" t="n">
         <v>251.5562484893081</v>
       </c>
       <c r="X17" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y17" t="n">
         <v>288.5532184279487</v>
@@ -1929,10 +1929,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>59.96036022729602</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>142.9410406679288</v>
       </c>
       <c r="G18" t="n">
         <v>135.1197321935187</v>
@@ -1941,7 +1941,7 @@
         <v>90.75836308184009</v>
       </c>
       <c r="I18" t="n">
-        <v>22.95785363122044</v>
+        <v>22.95785363122049</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.60976698607314</v>
       </c>
       <c r="S18" t="n">
         <v>130.377340636095</v>
@@ -1980,13 +1980,13 @@
         <v>225.7950804382319</v>
       </c>
       <c r="V18" t="n">
-        <v>135.1158669213204</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>159.4918581934354</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>108.0882649753726</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14725995383242</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C19" t="n">
-        <v>69.56210087052295</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010748</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846429</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482637</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G19" t="n">
-        <v>68.44191251354283</v>
+        <v>68.44191251354279</v>
       </c>
       <c r="H19" t="n">
-        <v>47.96671599532375</v>
+        <v>47.96671599532372</v>
       </c>
       <c r="I19" t="n">
-        <v>1.699767349963018</v>
+        <v>1.699767349963011</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>93.84140085953307</v>
+        <v>93.84140085953305</v>
       </c>
       <c r="T19" t="n">
         <v>122.2950245647112</v>
       </c>
       <c r="U19" t="n">
-        <v>188.5326174947418</v>
+        <v>188.5326174947417</v>
       </c>
       <c r="V19" t="n">
         <v>154.4529230957231</v>
@@ -2065,7 +2065,7 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X19" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y19" t="n">
         <v>120.8999331239899</v>
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C20" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D20" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E20" t="n">
-        <v>9.694611958772555</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F20" t="n">
-        <v>309.1913255136066</v>
+        <v>34.64028762821835</v>
       </c>
       <c r="G20" t="n">
-        <v>313.4617763139658</v>
+        <v>313.4617763139657</v>
       </c>
       <c r="H20" t="n">
         <v>199.2249790222668</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>16.62500818443611</v>
+        <v>16.62500818443613</v>
       </c>
       <c r="T20" t="n">
         <v>107.2171844764372</v>
       </c>
       <c r="U20" t="n">
-        <v>153.3284334018865</v>
+        <v>153.3284334018864</v>
       </c>
       <c r="V20" t="n">
         <v>230.06753824203</v>
@@ -2144,7 +2144,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X20" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y20" t="n">
         <v>288.5532184279487</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>68.84846342176246</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2169,16 +2169,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>136.0146835216641</v>
       </c>
       <c r="G21" t="n">
-        <v>135.1197321935187</v>
+        <v>37.43501196541377</v>
       </c>
       <c r="H21" t="n">
-        <v>90.75836308184009</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>22.95785363122044</v>
+        <v>22.95785363122049</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.60976698607314</v>
       </c>
       <c r="S21" t="n">
         <v>130.377340636095</v>
@@ -2223,7 +2223,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>113.5698602359934</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383242</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052295</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010748</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846429</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482637</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G22" t="n">
-        <v>68.44191251354283</v>
+        <v>68.44191251354279</v>
       </c>
       <c r="H22" t="n">
-        <v>47.96671599532375</v>
+        <v>47.96671599532372</v>
       </c>
       <c r="I22" t="n">
-        <v>1.699767349963018</v>
+        <v>1.699767349963011</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>93.84140085953307</v>
+        <v>93.84140085953305</v>
       </c>
       <c r="T22" t="n">
         <v>122.2950245647112</v>
       </c>
       <c r="U22" t="n">
-        <v>188.5326174947418</v>
+        <v>188.5326174947417</v>
       </c>
       <c r="V22" t="n">
         <v>154.4529230957231</v>
@@ -2302,7 +2302,7 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X22" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y22" t="n">
         <v>120.8999331239899</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C23" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D23" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E23" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F23" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G23" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H23" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T23" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U23" t="n">
         <v>153.3104517307971</v>
@@ -2381,7 +2381,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X23" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y23" t="n">
         <v>288.5532184279487</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G25" t="n">
-        <v>68.34108803092333</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.084305103337</v>
+        <v>92.08430510333697</v>
       </c>
       <c r="T25" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U25" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V25" t="n">
         <v>154.4529230957231</v>
@@ -2539,7 +2539,7 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X25" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y25" t="n">
         <v>120.8999331239899</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>50.01648192329984</v>
+        <v>50.01648192329982</v>
       </c>
       <c r="T26" t="n">
         <v>144.7466902747441</v>
@@ -2691,10 +2691,10 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494252</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609195</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2716,22 +2716,22 @@
         <v>108.0755412337518</v>
       </c>
       <c r="D28" t="n">
-        <v>89.44419315333636</v>
+        <v>89.44419315333634</v>
       </c>
       <c r="E28" t="n">
-        <v>87.26268278169317</v>
+        <v>87.26268278169316</v>
       </c>
       <c r="F28" t="n">
-        <v>86.24976815805525</v>
+        <v>86.24976815805523</v>
       </c>
       <c r="G28" t="n">
         <v>106.8545283941522</v>
       </c>
       <c r="H28" t="n">
-        <v>85.58373504944478</v>
+        <v>85.58373504944477</v>
       </c>
       <c r="I28" t="n">
-        <v>37.1811405449621</v>
+        <v>37.18114054496208</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>29.76087280517133</v>
+        <v>29.76087280517132</v>
       </c>
       <c r="S28" t="n">
         <v>130.5977454665659</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>50.01648192329984</v>
+        <v>50.01648192329981</v>
       </c>
       <c r="T29" t="n">
-        <v>144.7466902747435</v>
+        <v>144.7466902747441</v>
       </c>
       <c r="U29" t="n">
         <v>191.823892094026</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2953,22 +2953,22 @@
         <v>108.0755412337518</v>
       </c>
       <c r="D31" t="n">
-        <v>89.44419315333636</v>
+        <v>89.44419315333634</v>
       </c>
       <c r="E31" t="n">
-        <v>87.26268278169317</v>
+        <v>87.26268278169316</v>
       </c>
       <c r="F31" t="n">
-        <v>86.24976815805525</v>
+        <v>86.24976815805523</v>
       </c>
       <c r="G31" t="n">
         <v>106.8545283941522</v>
       </c>
       <c r="H31" t="n">
-        <v>85.58373504944478</v>
+        <v>85.58373504944477</v>
       </c>
       <c r="I31" t="n">
-        <v>37.1811405449621</v>
+        <v>37.18114054496208</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>29.76087280517133</v>
+        <v>29.76087280517132</v>
       </c>
       <c r="S31" t="n">
         <v>130.5977454665659</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>323.5625617986046</v>
+        <v>323.5625617986045</v>
       </c>
       <c r="C32" t="n">
-        <v>306.1016119061316</v>
+        <v>306.1016119061315</v>
       </c>
       <c r="D32" t="n">
-        <v>295.511761755807</v>
+        <v>295.5117617558069</v>
       </c>
       <c r="E32" t="n">
-        <v>322.7590902073858</v>
+        <v>322.7590902073857</v>
       </c>
       <c r="F32" t="n">
-        <v>347.7047658768355</v>
+        <v>347.7047658768354</v>
       </c>
       <c r="G32" t="n">
-        <v>351.7504457885775</v>
+        <v>351.7504457885774</v>
       </c>
       <c r="H32" t="n">
-        <v>235.4364845224445</v>
+        <v>235.4364845224444</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>50.01648192329985</v>
+        <v>50.01648192329976</v>
       </c>
       <c r="T32" t="n">
-        <v>144.7466902747442</v>
+        <v>144.7466902747441</v>
       </c>
       <c r="U32" t="n">
-        <v>191.823892094026</v>
+        <v>191.8238920940259</v>
       </c>
       <c r="V32" t="n">
-        <v>268.5809786052589</v>
+        <v>268.5809786052588</v>
       </c>
       <c r="W32" t="n">
-        <v>290.0696888525371</v>
+        <v>290.069688852537</v>
       </c>
       <c r="X32" t="n">
-        <v>310.5598208135931</v>
+        <v>310.559820813593</v>
       </c>
       <c r="Y32" t="n">
-        <v>327.0666587911776</v>
+        <v>327.0666587911775</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247744</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>120.6607003170613</v>
+        <v>120.6607003170612</v>
       </c>
       <c r="C34" t="n">
-        <v>108.0755412337519</v>
+        <v>108.0755412337518</v>
       </c>
       <c r="D34" t="n">
-        <v>89.44419315333639</v>
+        <v>89.44419315333629</v>
       </c>
       <c r="E34" t="n">
-        <v>87.2626827816932</v>
+        <v>87.2626827816931</v>
       </c>
       <c r="F34" t="n">
-        <v>86.24976815805528</v>
+        <v>86.24976815805518</v>
       </c>
       <c r="G34" t="n">
-        <v>106.8545283941523</v>
+        <v>106.8545283941522</v>
       </c>
       <c r="H34" t="n">
-        <v>85.58373504944481</v>
+        <v>85.58373504944471</v>
       </c>
       <c r="I34" t="n">
-        <v>37.18114054496213</v>
+        <v>37.18114054496203</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>29.76087280517136</v>
+        <v>29.76087280517126</v>
       </c>
       <c r="S34" t="n">
-        <v>130.5977454665659</v>
+        <v>130.5977454665658</v>
       </c>
       <c r="T34" t="n">
-        <v>160.3776694112932</v>
+        <v>160.3776694112931</v>
       </c>
       <c r="U34" t="n">
-        <v>227.0405583407369</v>
+        <v>227.0405583407368</v>
       </c>
       <c r="V34" t="n">
-        <v>192.966363458952</v>
+        <v>192.9663634589519</v>
       </c>
       <c r="W34" t="n">
-        <v>227.351718471715</v>
+        <v>227.3517184717149</v>
       </c>
       <c r="X34" t="n">
-        <v>166.5383755241612</v>
+        <v>166.5383755241611</v>
       </c>
       <c r="Y34" t="n">
-        <v>159.4133734872188</v>
+        <v>159.4133734872187</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3317,7 @@
         <v>11.50304156007094</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
         <v>153.3104517307971</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353759</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429028</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925782</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441571</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136067</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253487</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592157</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
-        <v>-2.982574187626596e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007114</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115155</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307973</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420302</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893083</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503643</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279489</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.1472599538326</v>
+        <v>82.14725995383239</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052314</v>
+        <v>69.56210087052293</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010766</v>
+        <v>50.93075279010745</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846448</v>
+        <v>48.74924241846426</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482655</v>
+        <v>47.73632779482634</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092353</v>
+        <v>68.34108803092332</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621609</v>
+        <v>47.07029468621587</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.0843051033372</v>
+        <v>92.08430510333699</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480645</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775081</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957233</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084863</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609324</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239901</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353758</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429028</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925782</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E41" t="n">
-        <v>284.245649844157</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136067</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253487</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592157</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007107</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115154</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307972</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420301</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893082</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503643</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279488</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3828,7 +3828,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G42" t="n">
         <v>134.9994691657081</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247759</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383253</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052307</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010759</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846441</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482648</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092346</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621602</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333713</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480644</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775081</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957232</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084862</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609324</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.89993312399</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353758</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429028</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925782</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E44" t="n">
-        <v>284.245649844157</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136067</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253487</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592157</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007107</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115154</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307972</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420275</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893082</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503643</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279488</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247764</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383253</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052307</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010759</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846441</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482648</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092346</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621602</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333713</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480644</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775081</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957232</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084862</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609324</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.89993312399</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1412.014008049743</v>
+        <v>1098.698518610061</v>
       </c>
       <c r="C11" t="n">
-        <v>1081.953956122694</v>
+        <v>768.6384666830115</v>
       </c>
       <c r="D11" t="n">
-        <v>762.5907225293056</v>
+        <v>449.2752330896236</v>
       </c>
       <c r="E11" t="n">
-        <v>415.7049349444239</v>
+        <v>449.2752330896236</v>
       </c>
       <c r="F11" t="n">
-        <v>415.7049349444239</v>
+        <v>449.2752330896236</v>
       </c>
       <c r="G11" t="n">
-        <v>333.8845287545745</v>
+        <v>72.87820664634907</v>
       </c>
       <c r="H11" t="n">
-        <v>72.87820664634947</v>
+        <v>72.87820664634907</v>
       </c>
       <c r="I11" t="n">
-        <v>61.03076311795258</v>
+        <v>61.03076311795251</v>
       </c>
       <c r="J11" t="n">
-        <v>231.0235173512788</v>
+        <v>231.0235173512797</v>
       </c>
       <c r="K11" t="n">
-        <v>536.5371081174108</v>
+        <v>536.5371081174119</v>
       </c>
       <c r="L11" t="n">
-        <v>952.4554946804105</v>
+        <v>952.4554946804126</v>
       </c>
       <c r="M11" t="n">
-        <v>1446.914276069384</v>
+        <v>1446.914276069387</v>
       </c>
       <c r="N11" t="n">
-        <v>1953.987725860804</v>
+        <v>1953.987725860808</v>
       </c>
       <c r="O11" t="n">
-        <v>2419.467544341231</v>
+        <v>2419.467544341234</v>
       </c>
       <c r="P11" t="n">
-        <v>2782.242799299108</v>
+        <v>2782.242799299103</v>
       </c>
       <c r="Q11" t="n">
-        <v>3006.499161029608</v>
+        <v>3006.499161029604</v>
       </c>
       <c r="R11" t="n">
-        <v>3051.538155897629</v>
+        <v>3051.538155897626</v>
       </c>
       <c r="S11" t="n">
-        <v>3051.538155897629</v>
+        <v>2974.976248777109</v>
       </c>
       <c r="T11" t="n">
-        <v>3051.538155897629</v>
+        <v>2806.907092876792</v>
       </c>
       <c r="U11" t="n">
-        <v>3051.538155897629</v>
+        <v>2592.26091785986</v>
       </c>
       <c r="V11" t="n">
-        <v>2759.377733567421</v>
+        <v>2300.100495529653</v>
       </c>
       <c r="W11" t="n">
-        <v>2445.511543310669</v>
+        <v>1986.234305272901</v>
       </c>
       <c r="X11" t="n">
-        <v>2110.948250062952</v>
+        <v>1651.671012025184</v>
       </c>
       <c r="Y11" t="n">
-        <v>1759.711383100502</v>
+        <v>1446.39589366082</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>780.9495858350093</v>
+        <v>780.9495858350126</v>
       </c>
       <c r="C12" t="n">
-        <v>645.3990215672447</v>
+        <v>645.3990215672482</v>
       </c>
       <c r="D12" t="n">
-        <v>535.3670769193559</v>
+        <v>535.3670769193594</v>
       </c>
       <c r="E12" t="n">
-        <v>415.0320869272629</v>
+        <v>415.0320869272665</v>
       </c>
       <c r="F12" t="n">
-        <v>307.3999939675103</v>
+        <v>268.4975289541514</v>
       </c>
       <c r="G12" t="n">
-        <v>175.8956284846804</v>
+        <v>152.7058773420334</v>
       </c>
       <c r="H12" t="n">
-        <v>84.22051426059949</v>
+        <v>61.03076311795251</v>
       </c>
       <c r="I12" t="n">
-        <v>61.03076311795258</v>
+        <v>61.03076311795251</v>
       </c>
       <c r="J12" t="n">
-        <v>143.459436015377</v>
+        <v>143.4594360153772</v>
       </c>
       <c r="K12" t="n">
-        <v>362.4979917678526</v>
+        <v>362.4979917678531</v>
       </c>
       <c r="L12" t="n">
-        <v>703.3449021689069</v>
+        <v>703.344902168908</v>
       </c>
       <c r="M12" t="n">
-        <v>1120.454038069058</v>
+        <v>1120.45403806906</v>
       </c>
       <c r="N12" t="n">
-        <v>1563.011456565263</v>
+        <v>1563.011456565266</v>
       </c>
       <c r="O12" t="n">
-        <v>1945.645238680921</v>
+        <v>1945.645238680924</v>
       </c>
       <c r="P12" t="n">
-        <v>2233.409516175573</v>
+        <v>2233.409516175576</v>
       </c>
       <c r="Q12" t="n">
-        <v>2375.853118516092</v>
+        <v>2375.853118516095</v>
       </c>
       <c r="R12" t="n">
-        <v>2368.166485196827</v>
+        <v>2368.16648519683</v>
       </c>
       <c r="S12" t="n">
-        <v>2236.472201726024</v>
+        <v>2236.472201726027</v>
       </c>
       <c r="T12" t="n">
-        <v>2043.339560598643</v>
+        <v>2043.339560598646</v>
       </c>
       <c r="U12" t="n">
-        <v>1815.263721772146</v>
+        <v>1815.263721772149</v>
       </c>
       <c r="V12" t="n">
-        <v>1580.111613540403</v>
+        <v>1580.111613540406</v>
       </c>
       <c r="W12" t="n">
-        <v>1325.874256812202</v>
+        <v>1325.874256812205</v>
       </c>
       <c r="X12" t="n">
-        <v>1118.022756606669</v>
+        <v>1118.022756606672</v>
       </c>
       <c r="Y12" t="n">
-        <v>910.2624578417149</v>
+        <v>949.1649228550806</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>756.39917884729</v>
+        <v>504.2947883671366</v>
       </c>
       <c r="C13" t="n">
-        <v>626.3654609327455</v>
+        <v>374.2610704525924</v>
       </c>
       <c r="D13" t="n">
-        <v>515.1512865337722</v>
+        <v>374.2610704525924</v>
       </c>
       <c r="E13" t="n">
-        <v>406.1406579647416</v>
+        <v>265.2504418835618</v>
       </c>
       <c r="F13" t="n">
-        <v>298.1531754801937</v>
+        <v>265.2504418835618</v>
       </c>
       <c r="G13" t="n">
-        <v>169.2509609565383</v>
+        <v>169.2509609565381</v>
       </c>
       <c r="H13" t="n">
-        <v>61.03076311795258</v>
+        <v>61.03076311795251</v>
       </c>
       <c r="I13" t="n">
-        <v>61.03076311795258</v>
+        <v>61.03076311795251</v>
       </c>
       <c r="J13" t="n">
-        <v>137.2246935124986</v>
+        <v>137.2246935124988</v>
       </c>
       <c r="K13" t="n">
-        <v>367.7433504300776</v>
+        <v>367.7433504300782</v>
       </c>
       <c r="L13" t="n">
-        <v>707.5915025393379</v>
+        <v>707.5915025393388</v>
       </c>
       <c r="M13" t="n">
-        <v>1074.230205114212</v>
+        <v>1074.230205114214</v>
       </c>
       <c r="N13" t="n">
-        <v>1438.492281136268</v>
+        <v>1438.49228113627</v>
       </c>
       <c r="O13" t="n">
-        <v>1761.841614514367</v>
+        <v>1761.84161451437</v>
       </c>
       <c r="P13" t="n">
-        <v>2020.505100656696</v>
+        <v>2020.505100656699</v>
       </c>
       <c r="Q13" t="n">
-        <v>2127.885453984134</v>
+        <v>2127.885453984137</v>
       </c>
       <c r="R13" t="n">
-        <v>2072.378234105474</v>
+        <v>2072.378234105478</v>
       </c>
       <c r="S13" t="n">
-        <v>1917.819970747485</v>
+        <v>1917.819970747489</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.520673343862</v>
+        <v>1734.520673343865</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.520673343862</v>
+        <v>1484.314716414958</v>
       </c>
       <c r="V13" t="n">
-        <v>1518.738650151337</v>
+        <v>1268.532693222434</v>
       </c>
       <c r="W13" t="n">
-        <v>1268.223945127739</v>
+        <v>1018.017988198836</v>
       </c>
       <c r="X13" t="n">
-        <v>1081.035292794335</v>
+        <v>828.9309023141813</v>
       </c>
       <c r="Y13" t="n">
-        <v>899.1451786641674</v>
+        <v>647.0407881840138</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1706.590628303168</v>
+        <v>1052.853756115701</v>
       </c>
       <c r="C14" t="n">
-        <v>1376.530576376119</v>
+        <v>1052.853756115701</v>
       </c>
       <c r="D14" t="n">
-        <v>1057.167342782731</v>
+        <v>1052.853756115701</v>
       </c>
       <c r="E14" t="n">
-        <v>710.2815551978492</v>
+        <v>705.9679685308195</v>
       </c>
       <c r="F14" t="n">
-        <v>710.2815551978492</v>
+        <v>333.8845287545745</v>
       </c>
       <c r="G14" t="n">
         <v>333.8845287545745</v>
       </c>
       <c r="H14" t="n">
-        <v>72.87820664634947</v>
+        <v>72.87820664634941</v>
       </c>
       <c r="I14" t="n">
-        <v>61.03076311795257</v>
+        <v>61.03076311795251</v>
       </c>
       <c r="J14" t="n">
-        <v>231.0235173512792</v>
+        <v>231.0235173512786</v>
       </c>
       <c r="K14" t="n">
-        <v>536.5371081174112</v>
+        <v>536.5371081174101</v>
       </c>
       <c r="L14" t="n">
-        <v>952.455494680411</v>
+        <v>952.4554946804094</v>
       </c>
       <c r="M14" t="n">
-        <v>1446.914276069384</v>
+        <v>1446.914276069382</v>
       </c>
       <c r="N14" t="n">
-        <v>1953.987725860804</v>
+        <v>1953.987725860802</v>
       </c>
       <c r="O14" t="n">
-        <v>2419.46754434123</v>
+        <v>2419.467544341227</v>
       </c>
       <c r="P14" t="n">
-        <v>2782.242799299107</v>
+        <v>2782.242799299105</v>
       </c>
       <c r="Q14" t="n">
-        <v>3006.499161029607</v>
+        <v>3006.499161029604</v>
       </c>
       <c r="R14" t="n">
-        <v>3051.538155897628</v>
+        <v>3051.538155897626</v>
       </c>
       <c r="S14" t="n">
-        <v>2974.976248777111</v>
+        <v>2974.976248777108</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.907092876795</v>
+        <v>2806.907092876792</v>
       </c>
       <c r="U14" t="n">
-        <v>2740.088163564094</v>
+        <v>2592.26091785986</v>
       </c>
       <c r="V14" t="n">
-        <v>2740.088163564094</v>
+        <v>2300.100495529652</v>
       </c>
       <c r="W14" t="n">
-        <v>2740.088163564094</v>
+        <v>1986.234305272901</v>
       </c>
       <c r="X14" t="n">
-        <v>2405.524870316377</v>
+        <v>1651.671012025183</v>
       </c>
       <c r="Y14" t="n">
-        <v>2054.288003353928</v>
+        <v>1400.55113116646</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>785.9297983254306</v>
+        <v>780.949585835006</v>
       </c>
       <c r="C15" t="n">
-        <v>611.4767690443036</v>
+        <v>606.496556553879</v>
       </c>
       <c r="D15" t="n">
-        <v>501.4448243964148</v>
+        <v>496.4646119059903</v>
       </c>
       <c r="E15" t="n">
-        <v>381.1098344043217</v>
+        <v>376.1296219138974</v>
       </c>
       <c r="F15" t="n">
-        <v>273.4777414445691</v>
+        <v>268.4975289541449</v>
       </c>
       <c r="G15" t="n">
-        <v>175.8956284846803</v>
+        <v>170.9154159942563</v>
       </c>
       <c r="H15" t="n">
-        <v>84.22051426059947</v>
+        <v>79.24030177017535</v>
       </c>
       <c r="I15" t="n">
-        <v>61.03076311795257</v>
+        <v>61.03076311795251</v>
       </c>
       <c r="J15" t="n">
-        <v>143.459436015377</v>
+        <v>143.4594360153768</v>
       </c>
       <c r="K15" t="n">
-        <v>362.4979917678526</v>
+        <v>362.4979917678519</v>
       </c>
       <c r="L15" t="n">
-        <v>703.3449021689069</v>
+        <v>703.3449021689058</v>
       </c>
       <c r="M15" t="n">
-        <v>1120.454038069058</v>
+        <v>1120.454038069056</v>
       </c>
       <c r="N15" t="n">
-        <v>1563.011456565263</v>
+        <v>1563.011456565261</v>
       </c>
       <c r="O15" t="n">
-        <v>1945.645238680921</v>
+        <v>1945.645238680919</v>
       </c>
       <c r="P15" t="n">
-        <v>2233.409516175573</v>
+        <v>2233.40951617557</v>
       </c>
       <c r="Q15" t="n">
-        <v>2375.853118516092</v>
+        <v>2375.853118516089</v>
       </c>
       <c r="R15" t="n">
-        <v>2375.853118516092</v>
+        <v>2368.166485196823</v>
       </c>
       <c r="S15" t="n">
-        <v>2244.158835045289</v>
+        <v>2236.472201726021</v>
       </c>
       <c r="T15" t="n">
-        <v>2051.026193917909</v>
+        <v>2043.33956059864</v>
       </c>
       <c r="U15" t="n">
-        <v>1822.950355091412</v>
+        <v>1815.263721772143</v>
       </c>
       <c r="V15" t="n">
-        <v>1587.798246859669</v>
+        <v>1580.1116135404</v>
       </c>
       <c r="W15" t="n">
-        <v>1333.560890131467</v>
+        <v>1364.776721825561</v>
       </c>
       <c r="X15" t="n">
-        <v>1125.709389925935</v>
+        <v>1156.925221620028</v>
       </c>
       <c r="Y15" t="n">
-        <v>917.9490911609807</v>
+        <v>949.1649228550741</v>
       </c>
     </row>
     <row r="16">
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>648.1789810087043</v>
+        <v>504.2947883671334</v>
       </c>
       <c r="C16" t="n">
-        <v>518.1452630941599</v>
+        <v>374.2610704525891</v>
       </c>
       <c r="D16" t="n">
-        <v>406.9310886951866</v>
+        <v>263.0468960536159</v>
       </c>
       <c r="E16" t="n">
-        <v>297.9204601261559</v>
+        <v>154.0362674845849</v>
       </c>
       <c r="F16" t="n">
-        <v>189.932977641608</v>
+        <v>154.0362674845849</v>
       </c>
       <c r="G16" t="n">
-        <v>61.03076311795257</v>
+        <v>61.03076311795251</v>
       </c>
       <c r="H16" t="n">
-        <v>61.03076311795257</v>
+        <v>61.03076311795251</v>
       </c>
       <c r="I16" t="n">
-        <v>61.03076311795257</v>
+        <v>61.03076311795251</v>
       </c>
       <c r="J16" t="n">
         <v>137.2246935124986</v>
       </c>
       <c r="K16" t="n">
-        <v>367.7433504300777</v>
+        <v>367.7433504300775</v>
       </c>
       <c r="L16" t="n">
-        <v>707.5915025393379</v>
+        <v>707.5915025393376</v>
       </c>
       <c r="M16" t="n">
         <v>1074.230205114212</v>
       </c>
       <c r="N16" t="n">
-        <v>1438.492281136269</v>
+        <v>1438.492281136268</v>
       </c>
       <c r="O16" t="n">
-        <v>1761.841614514368</v>
+        <v>1761.841614514367</v>
       </c>
       <c r="P16" t="n">
         <v>2020.505100656696</v>
@@ -5461,7 +5461,7 @@
         <v>2072.378234105474</v>
       </c>
       <c r="S16" t="n">
-        <v>1917.819970747485</v>
+        <v>1917.819970747486</v>
       </c>
       <c r="T16" t="n">
         <v>1734.520673343862</v>
@@ -5470,16 +5470,16 @@
         <v>1484.314716414955</v>
       </c>
       <c r="V16" t="n">
-        <v>1268.53269322243</v>
+        <v>1268.532693222431</v>
       </c>
       <c r="W16" t="n">
-        <v>1018.017988198832</v>
+        <v>1018.017988198833</v>
       </c>
       <c r="X16" t="n">
-        <v>828.9309023141768</v>
+        <v>828.9309023141782</v>
       </c>
       <c r="Y16" t="n">
-        <v>790.9249808255815</v>
+        <v>647.0407881840106</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1708.212807188131</v>
+        <v>1430.888526495819</v>
       </c>
       <c r="C17" t="n">
-        <v>1437.921724821563</v>
+        <v>1430.888526495819</v>
       </c>
       <c r="D17" t="n">
-        <v>1178.327460788656</v>
+        <v>1178.327460788654</v>
       </c>
       <c r="E17" t="n">
-        <v>891.2106427642548</v>
+        <v>891.2106427642533</v>
       </c>
       <c r="F17" t="n">
-        <v>578.8961725484905</v>
+        <v>578.8961725484891</v>
       </c>
       <c r="G17" t="n">
-        <v>262.2681156656968</v>
+        <v>262.2681156656967</v>
       </c>
       <c r="H17" t="n">
-        <v>61.03076311795257</v>
+        <v>61.03076311795247</v>
       </c>
       <c r="I17" t="n">
-        <v>61.03076311795257</v>
+        <v>61.03076311795247</v>
       </c>
       <c r="J17" t="n">
-        <v>231.0235173512797</v>
+        <v>231.0235173512783</v>
       </c>
       <c r="K17" t="n">
-        <v>536.5371081174119</v>
+        <v>536.5371081174096</v>
       </c>
       <c r="L17" t="n">
-        <v>952.4554946804114</v>
+        <v>952.4554946804089</v>
       </c>
       <c r="M17" t="n">
-        <v>1446.914276069384</v>
+        <v>1446.914276069382</v>
       </c>
       <c r="N17" t="n">
-        <v>1953.987725860805</v>
+        <v>1953.987725860801</v>
       </c>
       <c r="O17" t="n">
-        <v>2419.46754434123</v>
+        <v>2419.467544341226</v>
       </c>
       <c r="P17" t="n">
-        <v>2782.242799299107</v>
+        <v>2782.242799299103</v>
       </c>
       <c r="Q17" t="n">
-        <v>3006.499161029607</v>
+        <v>3006.499161029603</v>
       </c>
       <c r="R17" t="n">
-        <v>3051.538155897628</v>
+        <v>3051.538155897624</v>
       </c>
       <c r="S17" t="n">
-        <v>3034.745218337592</v>
+        <v>3034.745218337587</v>
       </c>
       <c r="T17" t="n">
-        <v>2926.445031997756</v>
+        <v>2926.445031997751</v>
       </c>
       <c r="U17" t="n">
-        <v>2926.445031997756</v>
+        <v>2771.5678265413</v>
       </c>
       <c r="V17" t="n">
-        <v>2816.500654463885</v>
+        <v>2539.176373771573</v>
       </c>
       <c r="W17" t="n">
-        <v>2562.403433767615</v>
+        <v>2285.079153075302</v>
       </c>
       <c r="X17" t="n">
-        <v>2287.609110080378</v>
+        <v>2010.284829388066</v>
       </c>
       <c r="Y17" t="n">
-        <v>1996.14121267841</v>
+        <v>1718.816931986097</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5396583788805</v>
+        <v>840.7185553954864</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0866290977535</v>
+        <v>666.2655261143594</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1522194365023</v>
+        <v>517.3311164531082</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9147644310467</v>
+        <v>456.765096021496</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3802064579316</v>
+        <v>312.3802064579315</v>
       </c>
       <c r="G18" t="n">
-        <v>175.8956284846804</v>
+        <v>175.8956284846803</v>
       </c>
       <c r="H18" t="n">
-        <v>84.22051426059949</v>
+        <v>84.22051426059943</v>
       </c>
       <c r="I18" t="n">
-        <v>61.03076311795257</v>
+        <v>61.03076311795247</v>
       </c>
       <c r="J18" t="n">
-        <v>143.459436015377</v>
+        <v>143.4594360153767</v>
       </c>
       <c r="K18" t="n">
-        <v>362.4979917678525</v>
+        <v>362.4979917678519</v>
       </c>
       <c r="L18" t="n">
-        <v>703.3449021689066</v>
+        <v>703.3449021689057</v>
       </c>
       <c r="M18" t="n">
-        <v>1120.454038069058</v>
+        <v>1120.454038069056</v>
       </c>
       <c r="N18" t="n">
-        <v>1563.011456565263</v>
+        <v>1563.011456565261</v>
       </c>
       <c r="O18" t="n">
-        <v>1945.64523868092</v>
+        <v>1945.645238680918</v>
       </c>
       <c r="P18" t="n">
-        <v>2233.409516175572</v>
+        <v>2233.40951617557</v>
       </c>
       <c r="Q18" t="n">
-        <v>2375.853118516091</v>
+        <v>2375.853118516089</v>
       </c>
       <c r="R18" t="n">
-        <v>2375.853118516091</v>
+        <v>2368.166485196823</v>
       </c>
       <c r="S18" t="n">
-        <v>2244.158835045288</v>
+        <v>2236.47220172602</v>
       </c>
       <c r="T18" t="n">
-        <v>2051.026193917908</v>
+        <v>2043.339560598639</v>
       </c>
       <c r="U18" t="n">
-        <v>1822.950355091411</v>
+        <v>1815.263721772142</v>
       </c>
       <c r="V18" t="n">
-        <v>1686.469681433511</v>
+        <v>1580.1116135404</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.366794369435</v>
+        <v>1325.874256812198</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.515294163902</v>
+        <v>1216.694191180508</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.754995398948</v>
+        <v>1008.933892415555</v>
       </c>
     </row>
     <row r="19">
@@ -5647,58 +5647,58 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>399.5022982015391</v>
+        <v>399.5022982015388</v>
       </c>
       <c r="C19" t="n">
-        <v>329.2375498474755</v>
+        <v>329.2375498474752</v>
       </c>
       <c r="D19" t="n">
-        <v>277.7923450089831</v>
+        <v>277.7923450089829</v>
       </c>
       <c r="E19" t="n">
-        <v>228.5506860004334</v>
+        <v>228.5506860004331</v>
       </c>
       <c r="F19" t="n">
-        <v>180.3321730763663</v>
+        <v>180.3321730763661</v>
       </c>
       <c r="G19" t="n">
-        <v>111.1989281131917</v>
+        <v>111.1989281131916</v>
       </c>
       <c r="H19" t="n">
-        <v>62.74769983508693</v>
+        <v>62.74769983508683</v>
       </c>
       <c r="I19" t="n">
-        <v>61.03076311795257</v>
+        <v>61.03076311795247</v>
       </c>
       <c r="J19" t="n">
-        <v>162.5043816692298</v>
+        <v>162.5043816692296</v>
       </c>
       <c r="K19" t="n">
-        <v>345.9262769718301</v>
+        <v>345.9262769718299</v>
       </c>
       <c r="L19" t="n">
-        <v>583.5040416211787</v>
+        <v>583.5040416211783</v>
       </c>
       <c r="M19" t="n">
-        <v>823.8482183369898</v>
+        <v>831.9977469619288</v>
       </c>
       <c r="N19" t="n">
-        <v>979.8824487234322</v>
+        <v>1084.739850374195</v>
       </c>
       <c r="O19" t="n">
-        <v>1200.400099465535</v>
+        <v>1297.107972491358</v>
       </c>
       <c r="P19" t="n">
-        <v>1383.98665499319</v>
+        <v>1480.694528019013</v>
       </c>
       <c r="Q19" t="n">
         <v>1485.257046592881</v>
       </c>
       <c r="R19" t="n">
-        <v>1489.433987456034</v>
+        <v>1489.433987456033</v>
       </c>
       <c r="S19" t="n">
-        <v>1394.644693658526</v>
+        <v>1394.644693658525</v>
       </c>
       <c r="T19" t="n">
         <v>1271.114365815383</v>
@@ -5707,16 +5707,16 @@
         <v>1080.677378446957</v>
       </c>
       <c r="V19" t="n">
-        <v>924.6643248149136</v>
+        <v>924.6643248149131</v>
       </c>
       <c r="W19" t="n">
-        <v>733.9185893517963</v>
+        <v>733.9185893517958</v>
       </c>
       <c r="X19" t="n">
-        <v>604.6004730276223</v>
+        <v>604.6004730276219</v>
       </c>
       <c r="Y19" t="n">
-        <v>482.4793284579355</v>
+        <v>482.4793284579351</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1430.888526495823</v>
+        <v>1430.88852649582</v>
       </c>
       <c r="C20" t="n">
-        <v>1160.597444129255</v>
+        <v>1160.597444129251</v>
       </c>
       <c r="D20" t="n">
-        <v>901.0031800963479</v>
+        <v>901.0031800963442</v>
       </c>
       <c r="E20" t="n">
-        <v>891.2106427642544</v>
+        <v>613.8863620719433</v>
       </c>
       <c r="F20" t="n">
-        <v>578.8961725484902</v>
+        <v>578.8961725484904</v>
       </c>
       <c r="G20" t="n">
-        <v>262.2681156656968</v>
+        <v>262.2681156656967</v>
       </c>
       <c r="H20" t="n">
-        <v>61.03076311795257</v>
+        <v>61.03076311795247</v>
       </c>
       <c r="I20" t="n">
-        <v>61.03076311795257</v>
+        <v>61.03076311795247</v>
       </c>
       <c r="J20" t="n">
-        <v>231.0235173512791</v>
+        <v>231.0235173512787</v>
       </c>
       <c r="K20" t="n">
-        <v>536.5371081174109</v>
+        <v>536.5371081174102</v>
       </c>
       <c r="L20" t="n">
-        <v>952.4554946804105</v>
+        <v>952.4554946804095</v>
       </c>
       <c r="M20" t="n">
-        <v>1446.914276069384</v>
+        <v>1446.914276069382</v>
       </c>
       <c r="N20" t="n">
-        <v>1953.987725860804</v>
+        <v>1953.987725860802</v>
       </c>
       <c r="O20" t="n">
-        <v>2419.467544341229</v>
+        <v>2419.467544341227</v>
       </c>
       <c r="P20" t="n">
-        <v>2782.242799299107</v>
+        <v>2782.242799299103</v>
       </c>
       <c r="Q20" t="n">
-        <v>3006.499161029607</v>
+        <v>3006.499161029602</v>
       </c>
       <c r="R20" t="n">
-        <v>3051.538155897628</v>
+        <v>3051.538155897624</v>
       </c>
       <c r="S20" t="n">
-        <v>3034.745218337591</v>
+        <v>3034.745218337587</v>
       </c>
       <c r="T20" t="n">
-        <v>2926.445031997756</v>
+        <v>2926.445031997752</v>
       </c>
       <c r="U20" t="n">
-        <v>2771.567826541305</v>
+        <v>2771.567826541301</v>
       </c>
       <c r="V20" t="n">
-        <v>2539.176373771578</v>
+        <v>2539.176373771574</v>
       </c>
       <c r="W20" t="n">
-        <v>2285.079153075307</v>
+        <v>2285.079153075303</v>
       </c>
       <c r="X20" t="n">
-        <v>2010.28482938807</v>
+        <v>2010.284829388067</v>
       </c>
       <c r="Y20" t="n">
-        <v>1718.816931986102</v>
+        <v>1718.816931986098</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5396583788805</v>
+        <v>742.0471208216431</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0866290977535</v>
+        <v>567.5940915405162</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1522194365023</v>
+        <v>418.6596818792649</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9147644310467</v>
+        <v>259.4222268738094</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3802064579316</v>
+        <v>122.0336576600073</v>
       </c>
       <c r="G21" t="n">
-        <v>175.8956284846804</v>
+        <v>84.22051426059943</v>
       </c>
       <c r="H21" t="n">
-        <v>84.22051426059949</v>
+        <v>84.22051426059943</v>
       </c>
       <c r="I21" t="n">
-        <v>61.03076311795257</v>
+        <v>61.03076311795247</v>
       </c>
       <c r="J21" t="n">
-        <v>143.459436015377</v>
+        <v>143.4594360153767</v>
       </c>
       <c r="K21" t="n">
-        <v>362.4979917678525</v>
+        <v>362.4979917678519</v>
       </c>
       <c r="L21" t="n">
-        <v>703.3449021689066</v>
+        <v>703.3449021689057</v>
       </c>
       <c r="M21" t="n">
-        <v>1120.454038069058</v>
+        <v>1120.454038069056</v>
       </c>
       <c r="N21" t="n">
-        <v>1563.011456565263</v>
+        <v>1563.011456565261</v>
       </c>
       <c r="O21" t="n">
-        <v>1945.64523868092</v>
+        <v>1945.645238680918</v>
       </c>
       <c r="P21" t="n">
-        <v>2233.409516175572</v>
+        <v>2233.40951617557</v>
       </c>
       <c r="Q21" t="n">
-        <v>2375.853118516091</v>
+        <v>2375.853118516089</v>
       </c>
       <c r="R21" t="n">
-        <v>2375.853118516091</v>
+        <v>2368.166485196823</v>
       </c>
       <c r="S21" t="n">
-        <v>2244.158835045288</v>
+        <v>2236.47220172602</v>
       </c>
       <c r="T21" t="n">
-        <v>2051.026193917908</v>
+        <v>2043.339560598639</v>
       </c>
       <c r="U21" t="n">
-        <v>1822.950355091411</v>
+        <v>1815.263721772142</v>
       </c>
       <c r="V21" t="n">
-        <v>1587.798246859668</v>
+        <v>1580.1116135404</v>
       </c>
       <c r="W21" t="n">
-        <v>1333.560890131467</v>
+        <v>1325.874256812198</v>
       </c>
       <c r="X21" t="n">
-        <v>1218.843859590059</v>
+        <v>1118.022756606665</v>
       </c>
       <c r="Y21" t="n">
-        <v>1011.083560825105</v>
+        <v>910.2624578417112</v>
       </c>
     </row>
     <row r="22">
@@ -5884,58 +5884,58 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>399.5022982015391</v>
+        <v>399.5022982015388</v>
       </c>
       <c r="C22" t="n">
-        <v>329.2375498474755</v>
+        <v>329.2375498474752</v>
       </c>
       <c r="D22" t="n">
-        <v>277.7923450089831</v>
+        <v>277.7923450089829</v>
       </c>
       <c r="E22" t="n">
-        <v>228.5506860004334</v>
+        <v>228.5506860004331</v>
       </c>
       <c r="F22" t="n">
-        <v>180.3321730763663</v>
+        <v>180.3321730763661</v>
       </c>
       <c r="G22" t="n">
-        <v>111.1989281131917</v>
+        <v>111.1989281131916</v>
       </c>
       <c r="H22" t="n">
-        <v>62.74769983508693</v>
+        <v>62.74769983508683</v>
       </c>
       <c r="I22" t="n">
-        <v>61.03076311795257</v>
+        <v>61.03076311795247</v>
       </c>
       <c r="J22" t="n">
-        <v>65.79650864340596</v>
+        <v>162.5043816692296</v>
       </c>
       <c r="K22" t="n">
-        <v>249.2184039460062</v>
+        <v>345.9262769718299</v>
       </c>
       <c r="L22" t="n">
-        <v>486.7961685953549</v>
+        <v>486.7961685953544</v>
       </c>
       <c r="M22" t="n">
-        <v>735.2898739361054</v>
+        <v>735.2898739361049</v>
       </c>
       <c r="N22" t="n">
-        <v>988.0319773483716</v>
+        <v>979.8824487234318</v>
       </c>
       <c r="O22" t="n">
-        <v>1208.549628090474</v>
+        <v>1200.400099465535</v>
       </c>
       <c r="P22" t="n">
-        <v>1392.13618361813</v>
+        <v>1383.986654993189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1489.433987456034</v>
+        <v>1485.257046592881</v>
       </c>
       <c r="R22" t="n">
-        <v>1489.433987456034</v>
+        <v>1489.433987456033</v>
       </c>
       <c r="S22" t="n">
-        <v>1394.644693658526</v>
+        <v>1394.644693658525</v>
       </c>
       <c r="T22" t="n">
         <v>1271.114365815383</v>
@@ -5944,16 +5944,16 @@
         <v>1080.677378446957</v>
       </c>
       <c r="V22" t="n">
-        <v>924.6643248149136</v>
+        <v>924.6643248149131</v>
       </c>
       <c r="W22" t="n">
-        <v>733.9185893517963</v>
+        <v>733.9185893517958</v>
       </c>
       <c r="X22" t="n">
-        <v>604.6004730276223</v>
+        <v>604.6004730276219</v>
       </c>
       <c r="Y22" t="n">
-        <v>482.4793284579355</v>
+        <v>482.4793284579351</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C23" t="n">
         <v>1440.850850103805</v>
       </c>
       <c r="D23" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E23" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G23" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T23" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V23" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W23" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X23" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y23" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="24">
@@ -6060,13 +6060,13 @@
         <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.2593958170928</v>
+        <v>402.2593958170926</v>
       </c>
       <c r="C25" t="n">
-        <v>331.9946474630292</v>
+        <v>331.9946474630291</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E25" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F25" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G25" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>67.83109325226756</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>79.65384678970702</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K25" t="n">
-        <v>274.6725740832013</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L25" t="n">
-        <v>527.0902910313823</v>
+        <v>525.7713142112983</v>
       </c>
       <c r="M25" t="n">
-        <v>791.230645356404</v>
+        <v>789.91166853632</v>
       </c>
       <c r="N25" t="n">
-        <v>1046.769673437848</v>
+        <v>1057.928378591992</v>
       </c>
       <c r="O25" t="n">
-        <v>1184.688022656037</v>
+        <v>1292.554600836005</v>
       </c>
       <c r="P25" t="n">
-        <v>1380.34689843462</v>
+        <v>1468.389729577966</v>
       </c>
       <c r="Q25" t="n">
-        <v>1489.975538818985</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R25" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S25" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T25" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U25" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V25" t="n">
-        <v>927.4214224304673</v>
+        <v>927.4214224304669</v>
       </c>
       <c r="W25" t="n">
-        <v>736.67568696735</v>
+        <v>736.6756869673496</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431759</v>
+        <v>607.3575706431757</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734892</v>
+        <v>485.236426073489</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>1955.671712554366</v>
       </c>
       <c r="C26" t="n">
-        <v>1646.478165174436</v>
+        <v>1646.478165174435</v>
       </c>
       <c r="D26" t="n">
         <v>1347.981436128166</v>
       </c>
       <c r="E26" t="n">
-        <v>1021.962153090403</v>
+        <v>1021.962153090402</v>
       </c>
       <c r="F26" t="n">
-        <v>670.7452178612759</v>
+        <v>670.7452178612757</v>
       </c>
       <c r="G26" t="n">
-        <v>315.4417372667533</v>
+        <v>315.4417372667531</v>
       </c>
       <c r="H26" t="n">
         <v>77.62710643600128</v>
       </c>
       <c r="I26" t="n">
-        <v>95.04551302703183</v>
+        <v>95.04551302703186</v>
       </c>
       <c r="J26" t="n">
-        <v>342.5042110522841</v>
+        <v>342.5042110522846</v>
       </c>
       <c r="K26" t="n">
-        <v>734.9031518083581</v>
+        <v>734.903151808358</v>
       </c>
       <c r="L26" t="n">
         <v>1244.516932122994</v>
@@ -6257,10 +6257,10 @@
         <v>3684.624844832343</v>
       </c>
       <c r="U26" t="n">
-        <v>3490.863337666661</v>
+        <v>3490.86333766666</v>
       </c>
       <c r="V26" t="n">
-        <v>3219.569419883571</v>
+        <v>3219.56941988357</v>
       </c>
       <c r="W26" t="n">
         <v>2926.569734173937</v>
@@ -6269,7 +6269,7 @@
         <v>2612.872945473338</v>
       </c>
       <c r="Y26" t="n">
-        <v>2282.502583058008</v>
+        <v>2282.502583058007</v>
       </c>
     </row>
     <row r="27">
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>684.3458835222597</v>
+        <v>684.3458835222596</v>
       </c>
       <c r="C28" t="n">
-        <v>575.1786701548335</v>
+        <v>575.1786701548334</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8310003029786</v>
+        <v>484.8310003029785</v>
       </c>
       <c r="E28" t="n">
         <v>396.6868762810662</v>
@@ -6388,19 +6388,19 @@
         <v>338.2197272830617</v>
       </c>
       <c r="L28" t="n">
-        <v>552.5091382716462</v>
+        <v>713.3590927977851</v>
       </c>
       <c r="M28" t="n">
-        <v>955.2457509374224</v>
+        <v>1116.095705463561</v>
       </c>
       <c r="N28" t="n">
-        <v>1328.057137607774</v>
+        <v>1516.083649235653</v>
       </c>
       <c r="O28" t="n">
-        <v>1685.966303594415</v>
+        <v>1873.992815222294</v>
       </c>
       <c r="P28" t="n">
-        <v>1977.153371094302</v>
+        <v>2031.52338504128</v>
       </c>
       <c r="Q28" t="n">
         <v>2113.343234313043</v>
@@ -6424,10 +6424,10 @@
         <v>1135.469569712604</v>
       </c>
       <c r="X28" t="n">
-        <v>967.2489883750678</v>
+        <v>967.2489883750677</v>
       </c>
       <c r="Y28" t="n">
-        <v>806.2253787920185</v>
+        <v>806.2253787920184</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1955.671712554368</v>
+        <v>1955.671712554366</v>
       </c>
       <c r="C29" t="n">
-        <v>1646.478165174437</v>
+        <v>1646.478165174436</v>
       </c>
       <c r="D29" t="n">
-        <v>1347.981436128167</v>
+        <v>1347.981436128166</v>
       </c>
       <c r="E29" t="n">
-        <v>1021.962153090404</v>
+        <v>1021.962153090403</v>
       </c>
       <c r="F29" t="n">
-        <v>670.7452178612771</v>
+        <v>670.7452178612759</v>
       </c>
       <c r="G29" t="n">
         <v>315.4417372667533</v>
       </c>
       <c r="H29" t="n">
-        <v>77.6271064360013</v>
+        <v>77.62710643600128</v>
       </c>
       <c r="I29" t="n">
-        <v>95.04551302703184</v>
+        <v>95.04551302703183</v>
       </c>
       <c r="J29" t="n">
         <v>342.5042110522845</v>
@@ -6482,31 +6482,31 @@
         <v>3456.892759355125</v>
       </c>
       <c r="Q29" t="n">
-        <v>3763.758688177035</v>
+        <v>3763.758688177034</v>
       </c>
       <c r="R29" t="n">
-        <v>3881.355321800065</v>
+        <v>3881.355321800064</v>
       </c>
       <c r="S29" t="n">
-        <v>3830.833622887641</v>
+        <v>3830.83362288764</v>
       </c>
       <c r="T29" t="n">
-        <v>3684.624844832345</v>
+        <v>3684.624844832343</v>
       </c>
       <c r="U29" t="n">
-        <v>3490.863337666662</v>
+        <v>3490.86333766666</v>
       </c>
       <c r="V29" t="n">
-        <v>3219.569419883572</v>
+        <v>3219.56941988357</v>
       </c>
       <c r="W29" t="n">
-        <v>2926.569734173939</v>
+        <v>2926.569734173937</v>
       </c>
       <c r="X29" t="n">
-        <v>2612.87294547334</v>
+        <v>2612.872945473338</v>
       </c>
       <c r="Y29" t="n">
-        <v>2282.502583058009</v>
+        <v>2282.502583058008</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>952.6588444849266</v>
+        <v>952.6588444849265</v>
       </c>
       <c r="C30" t="n">
-        <v>778.2058152037996</v>
+        <v>778.2058152037995</v>
       </c>
       <c r="D30" t="n">
-        <v>629.2714055425483</v>
+        <v>629.2714055425482</v>
       </c>
       <c r="E30" t="n">
-        <v>470.0339505370928</v>
+        <v>470.0339505370927</v>
       </c>
       <c r="F30" t="n">
         <v>323.4993925639777</v>
@@ -6534,10 +6534,10 @@
         <v>187.1362923965958</v>
       </c>
       <c r="H30" t="n">
-        <v>96.63439803446335</v>
+        <v>96.63439803446332</v>
       </c>
       <c r="I30" t="n">
-        <v>77.6271064360013</v>
+        <v>77.62710643600128</v>
       </c>
       <c r="J30" t="n">
         <v>171.3043759266186</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>684.3458835222598</v>
+        <v>684.3458835222596</v>
       </c>
       <c r="C31" t="n">
-        <v>575.1786701548336</v>
+        <v>575.1786701548334</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8310003029787</v>
+        <v>484.8310003029785</v>
       </c>
       <c r="E31" t="n">
-        <v>396.6868762810664</v>
+        <v>396.6868762810662</v>
       </c>
       <c r="F31" t="n">
-        <v>309.5658983436368</v>
+        <v>309.5658983436367</v>
       </c>
       <c r="G31" t="n">
-        <v>201.6320312788366</v>
+        <v>201.6320312788365</v>
       </c>
       <c r="H31" t="n">
         <v>115.1838140571751</v>
       </c>
       <c r="I31" t="n">
-        <v>77.6271064360013</v>
+        <v>77.62710643600128</v>
       </c>
       <c r="J31" t="n">
         <v>181.3293059491641</v>
       </c>
       <c r="K31" t="n">
-        <v>338.2197272830617</v>
+        <v>443.8960559642677</v>
       </c>
       <c r="L31" t="n">
-        <v>702.0571454702574</v>
+        <v>658.1854669528523</v>
       </c>
       <c r="M31" t="n">
-        <v>928.0691938356824</v>
+        <v>1060.922079618628</v>
       </c>
       <c r="N31" t="n">
-        <v>1328.057137607774</v>
+        <v>1460.91002339072</v>
       </c>
       <c r="O31" t="n">
         <v>1685.966303594415</v>
       </c>
       <c r="P31" t="n">
-        <v>1977.153371094302</v>
+        <v>1977.153371094301</v>
       </c>
       <c r="Q31" t="n">
         <v>2113.343234313043</v>
@@ -6661,10 +6661,10 @@
         <v>1135.469569712604</v>
       </c>
       <c r="X31" t="n">
-        <v>967.2489883750679</v>
+        <v>967.2489883750677</v>
       </c>
       <c r="Y31" t="n">
-        <v>806.2253787920187</v>
+        <v>806.2253787920184</v>
       </c>
     </row>
     <row r="32">
@@ -6677,64 +6677,64 @@
         <v>1955.671712554366</v>
       </c>
       <c r="C32" t="n">
-        <v>1646.478165174436</v>
+        <v>1646.478165174435</v>
       </c>
       <c r="D32" t="n">
         <v>1347.981436128166</v>
       </c>
       <c r="E32" t="n">
-        <v>1021.962153090403</v>
+        <v>1021.962153090402</v>
       </c>
       <c r="F32" t="n">
-        <v>670.7452178612762</v>
+        <v>670.7452178612759</v>
       </c>
       <c r="G32" t="n">
-        <v>315.4417372667533</v>
+        <v>315.4417372667532</v>
       </c>
       <c r="H32" t="n">
-        <v>77.6271064360013</v>
+        <v>77.62710643600128</v>
       </c>
       <c r="I32" t="n">
-        <v>95.04551302703172</v>
+        <v>95.04551302703189</v>
       </c>
       <c r="J32" t="n">
-        <v>342.5042110522843</v>
+        <v>342.5042110522846</v>
       </c>
       <c r="K32" t="n">
-        <v>734.9031518083581</v>
+        <v>734.9031518083584</v>
       </c>
       <c r="L32" t="n">
-        <v>1244.516932122994</v>
+        <v>1244.516932122995</v>
       </c>
       <c r="M32" t="n">
         <v>1836.628403861146</v>
       </c>
       <c r="N32" t="n">
-        <v>2441.986787986155</v>
+        <v>2441.986787986156</v>
       </c>
       <c r="O32" t="n">
-        <v>3003.53882593172</v>
+        <v>3003.538825931719</v>
       </c>
       <c r="P32" t="n">
         <v>3456.892759355125</v>
       </c>
       <c r="Q32" t="n">
-        <v>3763.758688177035</v>
+        <v>3763.758688177034</v>
       </c>
       <c r="R32" t="n">
-        <v>3881.355321800065</v>
+        <v>3881.355321800064</v>
       </c>
       <c r="S32" t="n">
-        <v>3830.833622887641</v>
+        <v>3830.83362288764</v>
       </c>
       <c r="T32" t="n">
-        <v>3684.624844832344</v>
+        <v>3684.624844832343</v>
       </c>
       <c r="U32" t="n">
-        <v>3490.863337666661</v>
+        <v>3490.86333766666</v>
       </c>
       <c r="V32" t="n">
-        <v>3219.569419883571</v>
+        <v>3219.56941988357</v>
       </c>
       <c r="W32" t="n">
         <v>2926.569734173937</v>
@@ -6743,7 +6743,7 @@
         <v>2612.872945473338</v>
       </c>
       <c r="Y32" t="n">
-        <v>2282.502583058008</v>
+        <v>2282.502583058007</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>952.6588444849262</v>
+        <v>952.6588444849265</v>
       </c>
       <c r="C33" t="n">
-        <v>778.2058152037993</v>
+        <v>778.2058152037995</v>
       </c>
       <c r="D33" t="n">
-        <v>629.2714055425481</v>
+        <v>629.2714055425482</v>
       </c>
       <c r="E33" t="n">
-        <v>470.0339505370926</v>
+        <v>470.0339505370927</v>
       </c>
       <c r="F33" t="n">
-        <v>323.4993925639776</v>
+        <v>323.4993925639777</v>
       </c>
       <c r="G33" t="n">
-        <v>187.1362923965961</v>
+        <v>187.1362923965958</v>
       </c>
       <c r="H33" t="n">
-        <v>96.63439803446363</v>
+        <v>96.63439803446335</v>
       </c>
       <c r="I33" t="n">
-        <v>77.6271064360013</v>
+        <v>77.62710643600128</v>
       </c>
       <c r="J33" t="n">
         <v>171.3043759266186</v>
@@ -6783,13 +6783,13 @@
         <v>409.5685749069658</v>
       </c>
       <c r="L33" t="n">
-        <v>776.2667352196312</v>
+        <v>776.2667352196311</v>
       </c>
       <c r="M33" t="n">
         <v>1223.543060441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1697.066103996401</v>
+        <v>1697.066103996402</v>
       </c>
       <c r="O33" t="n">
         <v>2108.027383414456</v>
@@ -6822,7 +6822,7 @@
         <v>1328.634480269948</v>
       </c>
       <c r="Y33" t="n">
-        <v>1120.874181504994</v>
+        <v>1120.874181504995</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>684.3458835222599</v>
+        <v>684.3458835222591</v>
       </c>
       <c r="C34" t="n">
-        <v>575.1786701548338</v>
+        <v>575.1786701548331</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8310003029788</v>
+        <v>484.8310003029783</v>
       </c>
       <c r="E34" t="n">
-        <v>396.6868762810665</v>
+        <v>396.686876281066</v>
       </c>
       <c r="F34" t="n">
-        <v>309.5658983436369</v>
+        <v>309.5658983436365</v>
       </c>
       <c r="G34" t="n">
-        <v>201.6320312788366</v>
+        <v>201.6320312788364</v>
       </c>
       <c r="H34" t="n">
-        <v>115.1838140571752</v>
+        <v>115.1838140571751</v>
       </c>
       <c r="I34" t="n">
-        <v>77.6271064360013</v>
+        <v>77.62710643600128</v>
       </c>
       <c r="J34" t="n">
-        <v>181.3293059491641</v>
+        <v>181.3293059491642</v>
       </c>
       <c r="K34" t="n">
-        <v>443.8960559642676</v>
+        <v>443.8960559642678</v>
       </c>
       <c r="L34" t="n">
-        <v>819.0354214789909</v>
+        <v>723.6786076447792</v>
       </c>
       <c r="M34" t="n">
-        <v>1221.772034144767</v>
+        <v>1126.415220310555</v>
       </c>
       <c r="N34" t="n">
-        <v>1621.759977916859</v>
+        <v>1526.403164082647</v>
       </c>
       <c r="O34" t="n">
-        <v>1884.31233006929</v>
+        <v>1884.312330069288</v>
       </c>
       <c r="P34" t="n">
-        <v>2041.842899888276</v>
+        <v>2041.842899888274</v>
       </c>
       <c r="Q34" t="n">
-        <v>2113.343234313044</v>
+        <v>2113.343234313042</v>
       </c>
       <c r="R34" t="n">
-        <v>2083.281746631053</v>
+        <v>2083.281746631051</v>
       </c>
       <c r="S34" t="n">
-        <v>1951.364832018359</v>
+        <v>1951.364832018358</v>
       </c>
       <c r="T34" t="n">
-        <v>1789.367186148366</v>
+        <v>1789.367186148365</v>
       </c>
       <c r="U34" t="n">
-        <v>1560.033288834491</v>
+        <v>1560.033288834489</v>
       </c>
       <c r="V34" t="n">
-        <v>1365.117770189084</v>
+        <v>1365.117770189083</v>
       </c>
       <c r="W34" t="n">
-        <v>1135.469569712605</v>
+        <v>1135.469569712604</v>
       </c>
       <c r="X34" t="n">
-        <v>967.2489883750682</v>
+        <v>967.2489883750671</v>
       </c>
       <c r="Y34" t="n">
-        <v>806.2253787920188</v>
+        <v>806.2253787920179</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6920,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F35" t="n">
         <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.424282249573</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218343</v>
@@ -6935,10 +6935,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6947,13 +6947,13 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052369</v>
@@ -7014,10 +7014,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
         <v>765.1517452158131</v>
@@ -7096,22 +7096,22 @@
         <v>175.0427429954467</v>
       </c>
       <c r="K37" t="n">
-        <v>273.3535972631171</v>
+        <v>370.061470288941</v>
       </c>
       <c r="L37" t="n">
-        <v>525.7713142112982</v>
+        <v>622.4791872371221</v>
       </c>
       <c r="M37" t="n">
         <v>789.9116685363199</v>
       </c>
       <c r="N37" t="n">
-        <v>961.2205055661674</v>
+        <v>1038.104631555371</v>
       </c>
       <c r="O37" t="n">
-        <v>1195.846727810181</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P37" t="n">
-        <v>1391.505603588763</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q37" t="n">
         <v>1481.310496936508</v>
@@ -7151,7 +7151,7 @@
         <v>1711.141932470375</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103807</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
         <v>1181.256586070899</v>
@@ -7160,52 +7160,52 @@
         <v>894.1397680464981</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307341</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495731</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218349</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321865</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912119</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810584</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329467</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001392</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060174</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939511</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296689</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052372</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609174</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710112</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668178</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515857</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746129</v>
@@ -7214,7 +7214,7 @@
         <v>2565.332559049858</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362622</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960653</v>
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218349</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K39" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N39" t="n">
         <v>1685.951113992584</v>
@@ -7272,25 +7272,25 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U39" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X39" t="n">
         <v>1317.519490266131</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170941</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630303</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245377</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159877</v>
+        <v>231.307783615987</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919205</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404826</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218349</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218349</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J40" t="n">
-        <v>175.0427429954466</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K40" t="n">
-        <v>370.0614702889406</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L40" t="n">
-        <v>622.4791872371216</v>
+        <v>525.7713142112982</v>
       </c>
       <c r="M40" t="n">
-        <v>886.619541562143</v>
+        <v>789.9116685363199</v>
       </c>
       <c r="N40" t="n">
-        <v>1154.636251617814</v>
+        <v>961.2205055661674</v>
       </c>
       <c r="O40" t="n">
-        <v>1378.103768707688</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P40" t="n">
-        <v>1477.054771460447</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818988</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818988</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219657</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363026</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.434476062513</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304693</v>
+        <v>927.4214224304671</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673518</v>
+        <v>736.6756869673499</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431776</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734906</v>
+        <v>485.2364260734891</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046498</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495731</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218349</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218349</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060174</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939511</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296689</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052372</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609174</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710112</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668177</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515857</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362622</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811088</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999819</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387306</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332751</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601601</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927782</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064571</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218349</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170937</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630299</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245374</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159875</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919203</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404825</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218349</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226749</v>
+        <v>67.83109325226756</v>
       </c>
       <c r="J43" t="n">
-        <v>176.3617198155307</v>
+        <v>176.3617198155309</v>
       </c>
       <c r="K43" t="n">
-        <v>371.3804471090248</v>
+        <v>350.2377232523205</v>
       </c>
       <c r="L43" t="n">
-        <v>623.7981640572058</v>
+        <v>505.9475671746778</v>
       </c>
       <c r="M43" t="n">
-        <v>875.4608364080027</v>
+        <v>770.0879214996994</v>
       </c>
       <c r="N43" t="n">
-        <v>1143.477546463674</v>
+        <v>1038.104631555371</v>
       </c>
       <c r="O43" t="n">
-        <v>1378.103768707687</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P43" t="n">
-        <v>1477.054771460446</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q43" t="n">
-        <v>1489.975538818987</v>
+        <v>1481.310496936508</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818987</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219656</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363025</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.434476062512</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304685</v>
+        <v>927.4214224304673</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673511</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X43" t="n">
-        <v>607.357570643177</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734902</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
         <v>1440.850850103806</v>
@@ -7637,31 +7637,31 @@
         <v>581.8252978307337</v>
       </c>
       <c r="G44" t="n">
-        <v>265.424282249573</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296688</v>
@@ -7670,25 +7670,25 @@
         <v>3266.58875505237</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.42977974613</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049859</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362622</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
         <v>1999.070337960653</v>
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811088</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999819</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387306</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332751</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601601</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927782</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064571</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228008</v>
@@ -7731,46 +7731,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T45" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170936</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630299</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245373</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159874</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919203</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404824</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I46" t="n">
-        <v>67.83109325226744</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J46" t="n">
-        <v>176.3617198155306</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K46" t="n">
-        <v>371.3804471090247</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L46" t="n">
-        <v>623.7981640572057</v>
+        <v>429.0634411854744</v>
       </c>
       <c r="M46" t="n">
-        <v>866.7957945255259</v>
+        <v>693.2037955104961</v>
       </c>
       <c r="N46" t="n">
-        <v>1134.812504581197</v>
+        <v>961.2205055661675</v>
       </c>
       <c r="O46" t="n">
-        <v>1369.438726825211</v>
+        <v>1184.688022656037</v>
       </c>
       <c r="P46" t="n">
-        <v>1468.389729577969</v>
+        <v>1380.34689843462</v>
       </c>
       <c r="Q46" t="n">
-        <v>1481.31049693651</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818987</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219656</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363025</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.434476062512</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304685</v>
+        <v>927.4214224304673</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673511</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X46" t="n">
-        <v>607.357570643177</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734901</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
   </sheetData>
@@ -10036,22 +10036,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
         <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>144.3666490649265</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>10.42375237070213</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10270,19 +10270,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>151.0585931299103</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
         <v>171.8177168444618</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>28.84683224169405</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
@@ -10510,7 +10510,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415544</v>
+        <v>66.15468756760282</v>
       </c>
       <c r="M34" t="n">
         <v>178.5096609094456</v>
@@ -10519,7 +10519,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>66.72165239193342</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.49924829537005</v>
+        <v>14.49924829537004</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>343.4169297090328</v>
       </c>
       <c r="F11" t="n">
-        <v>368.3626053784826</v>
+        <v>368.3626053784825</v>
       </c>
       <c r="G11" t="n">
-        <v>291.6308540508909</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>258.3962588871427</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>75.79628804931215</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>166.3884643413132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>212.4997132667625</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>144.5021311121045</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>110.1020326549834</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>106.9076076597023</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>32.57370626066522</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.87104721483907</v>
+        <v>60.87104721483888</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>247.7038973596178</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.879449215738283</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>326.7594514077786</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>316.169601257454</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>368.3626053784826</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>372.6330561788417</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>146.3489732471891</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>289.2388181069061</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>310.7275283541842</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>99.11581624268925</v>
       </c>
     </row>
     <row r="15">
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>106.9076076597023</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>35.53774305545269</v>
       </c>
       <c r="H16" t="n">
-        <v>107.1379958601998</v>
+        <v>107.1379958601997</v>
       </c>
       <c r="I16" t="n">
-        <v>60.87104721483907</v>
+        <v>60.871047214839</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.4453507151566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23732,10 +23732,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.962866342485007</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23786,10 +23786,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>153.3284334018865</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>121.2226044834981</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23975,10 +23975,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>274.5510378853843</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>274.5510378853882</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>2.643218977027573e-12</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>903205.1635564134</v>
+        <v>903205.1635564135</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>979004.6963795437</v>
+        <v>979004.6963795435</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>979004.6963795439</v>
+        <v>979004.6963795435</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1005776.168083747</v>
+        <v>1005776.168083748</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26314,25 @@
         <v>430120.0778264452</v>
       </c>
       <c r="C2" t="n">
-        <v>430120.0778264451</v>
+        <v>430120.0778264452</v>
       </c>
       <c r="D2" t="n">
-        <v>430153.6556409392</v>
+        <v>430153.6556409391</v>
       </c>
       <c r="E2" t="n">
-        <v>380552.8133276161</v>
+        <v>380552.8133276163</v>
       </c>
       <c r="F2" t="n">
         <v>380552.8133276163</v>
       </c>
       <c r="G2" t="n">
-        <v>419573.441305518</v>
+        <v>419573.4413055177</v>
       </c>
       <c r="H2" t="n">
-        <v>419573.441305518</v>
+        <v>419573.4413055179</v>
       </c>
       <c r="I2" t="n">
-        <v>431046.9291787485</v>
+        <v>431046.9291787482</v>
       </c>
       <c r="J2" t="n">
         <v>431046.9291787487</v>
@@ -26341,7 +26341,7 @@
         <v>431046.9291787487</v>
       </c>
       <c r="L2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="M2" t="n">
         <v>431046.9291787483</v>
@@ -26350,10 +26350,10 @@
         <v>431046.9291787482</v>
       </c>
       <c r="O2" t="n">
-        <v>431046.9291787485</v>
+        <v>431046.9291787482</v>
       </c>
       <c r="P2" t="n">
-        <v>431046.9291787482</v>
+        <v>431046.9291787484</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>171169.7048931361</v>
+        <v>171169.7048931376</v>
       </c>
       <c r="E3" t="n">
-        <v>928626.9828614072</v>
+        <v>928626.9828614064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>60307.60726530822</v>
+        <v>60307.60726530899</v>
       </c>
       <c r="J3" t="n">
-        <v>36352.13055698644</v>
+        <v>36352.13055698652</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>47337.02389190083</v>
       </c>
       <c r="M3" t="n">
-        <v>186300.8813297685</v>
+        <v>186300.8813297682</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>397952.3823424639</v>
+        <v>397952.3823424634</v>
       </c>
       <c r="E4" t="n">
-        <v>59521.1868930693</v>
+        <v>59521.18689306934</v>
       </c>
       <c r="F4" t="n">
-        <v>59521.1868930693</v>
+        <v>59521.1868930695</v>
       </c>
       <c r="G4" t="n">
-        <v>100421.2759989385</v>
+        <v>100421.2759989387</v>
       </c>
       <c r="H4" t="n">
-        <v>100421.2759989385</v>
+        <v>100421.2759989387</v>
       </c>
       <c r="I4" t="n">
-        <v>93774.13782657695</v>
+        <v>93774.13782657697</v>
       </c>
       <c r="J4" t="n">
+        <v>95465.08003076463</v>
+      </c>
+      <c r="K4" t="n">
         <v>95465.08003076461</v>
       </c>
-      <c r="K4" t="n">
-        <v>95465.08003076463</v>
-      </c>
       <c r="L4" t="n">
-        <v>95465.08003076461</v>
+        <v>95465.08003076467</v>
       </c>
       <c r="M4" t="n">
         <v>93774.13782657695</v>
       </c>
       <c r="N4" t="n">
+        <v>93774.13782657705</v>
+      </c>
+      <c r="O4" t="n">
         <v>93774.13782657695</v>
       </c>
-      <c r="O4" t="n">
-        <v>93774.137826577</v>
-      </c>
       <c r="P4" t="n">
-        <v>93774.13782657686</v>
+        <v>93774.13782657692</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26473,19 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>37984.72116648066</v>
+        <v>37984.7211664807</v>
       </c>
       <c r="E5" t="n">
-        <v>72159.42212422506</v>
+        <v>72159.42212422504</v>
       </c>
       <c r="F5" t="n">
-        <v>72159.42212422505</v>
+        <v>72159.42212422501</v>
       </c>
       <c r="G5" t="n">
-        <v>77133.89245118531</v>
+        <v>77133.89245118524</v>
       </c>
       <c r="H5" t="n">
-        <v>77133.89245118531</v>
+        <v>77133.89245118524</v>
       </c>
       <c r="I5" t="n">
         <v>82518.59730624985</v>
@@ -26503,13 +26503,13 @@
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624988</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.5973062499</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-71123.48210528606</v>
+        <v>-71127.89568315417</v>
       </c>
       <c r="C6" t="n">
-        <v>-71123.48210528612</v>
+        <v>-71127.89568315417</v>
       </c>
       <c r="D6" t="n">
-        <v>-176953.1527611415</v>
+        <v>-176957.4064446558</v>
       </c>
       <c r="E6" t="n">
-        <v>-679754.7785510854</v>
+        <v>-679995.2267218041</v>
       </c>
       <c r="F6" t="n">
-        <v>248872.2043103221</v>
+        <v>248631.7561396038</v>
       </c>
       <c r="G6" t="n">
-        <v>194681.2489634935</v>
+        <v>194626.613306954</v>
       </c>
       <c r="H6" t="n">
-        <v>242018.2728553941</v>
+        <v>241963.6371988548</v>
       </c>
       <c r="I6" t="n">
-        <v>194446.5867806135</v>
+        <v>194446.5867806124</v>
       </c>
       <c r="J6" t="n">
-        <v>211501.5152997425</v>
+        <v>211501.5152997424</v>
       </c>
       <c r="K6" t="n">
         <v>247853.645856729</v>
       </c>
       <c r="L6" t="n">
-        <v>200516.621964828</v>
+        <v>200516.6219648281</v>
       </c>
       <c r="M6" t="n">
-        <v>68453.31271615306</v>
+        <v>68453.31271615326</v>
       </c>
       <c r="N6" t="n">
-        <v>254754.1940459215</v>
+        <v>254754.1940459213</v>
       </c>
       <c r="O6" t="n">
         <v>254754.1940459216</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="F2" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="G2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="J2" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="K2" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="M2" t="n">
         <v>97.68472022810489</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="3">
@@ -26741,19 +26741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>199.867943416544</v>
+        <v>199.8679434165457</v>
       </c>
       <c r="E3" t="n">
-        <v>1033.864942049762</v>
+        <v>1033.864942049763</v>
       </c>
       <c r="F3" t="n">
-        <v>1033.864942049762</v>
+        <v>1033.864942049761</v>
       </c>
       <c r="G3" t="n">
-        <v>1033.864942049762</v>
+        <v>1033.864942049761</v>
       </c>
       <c r="H3" t="n">
-        <v>1033.864942049762</v>
+        <v>1033.864942049761</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>762.8845389744073</v>
+        <v>762.8845389744064</v>
       </c>
       <c r="F4" t="n">
-        <v>762.8845389744071</v>
+        <v>762.8845389744064</v>
       </c>
       <c r="G4" t="n">
-        <v>762.8845389744071</v>
+        <v>762.8845389744059</v>
       </c>
       <c r="H4" t="n">
-        <v>762.8845389744071</v>
+        <v>762.8845389744059</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
         <v>970.3388304500161</v>
       </c>
       <c r="K4" t="n">
-        <v>970.3388304500162</v>
+        <v>970.3388304500161</v>
       </c>
       <c r="L4" t="n">
-        <v>970.3388304500162</v>
+        <v>970.3388304500161</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022935</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022935</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>59.17127986487604</v>
       </c>
       <c r="M2" t="n">
-        <v>38.51344036322892</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>199.867943416544</v>
+        <v>199.8679434165457</v>
       </c>
       <c r="E3" t="n">
-        <v>833.9969986332183</v>
+        <v>833.9969986332177</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-1.850382482149662e-12</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.629715585289518e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>55.91175854353628</v>
+        <v>55.91175854353696</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,22 +27018,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>762.8845389744073</v>
+        <v>762.8845389744064</v>
       </c>
       <c r="F4" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>68.5169164278858</v>
+        <v>68.51691642788683</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9373750477232</v>
+        <v>138.9373750477233</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,16 +27042,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>623.947163926684</v>
+        <v>623.9471639266832</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="P4" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487598</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>762.8845389744073</v>
+        <v>762.8845389744064</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,40 +27871,40 @@
         <v>331.2460681438488</v>
       </c>
       <c r="I8" t="n">
-        <v>179.4993714254157</v>
+        <v>179.4993714254154</v>
       </c>
       <c r="J8" t="n">
-        <v>112.8507613606565</v>
+        <v>112.8507613606559</v>
       </c>
       <c r="K8" t="n">
-        <v>117.8830092062983</v>
+        <v>117.8830092062974</v>
       </c>
       <c r="L8" t="n">
-        <v>108.9697899219218</v>
+        <v>108.9697899219207</v>
       </c>
       <c r="M8" t="n">
-        <v>89.26055676721148</v>
+        <v>89.26055676721032</v>
       </c>
       <c r="N8" t="n">
-        <v>86.04447339087235</v>
+        <v>86.04447339087116</v>
       </c>
       <c r="O8" t="n">
-        <v>94.71931714500639</v>
+        <v>94.71931714500525</v>
       </c>
       <c r="P8" t="n">
-        <v>115.6902415915377</v>
+        <v>115.6902415915367</v>
       </c>
       <c r="Q8" t="n">
-        <v>135.5378933935517</v>
+        <v>135.537893393551</v>
       </c>
       <c r="R8" t="n">
-        <v>165.1133581130689</v>
+        <v>165.1133581130684</v>
       </c>
       <c r="S8" t="n">
-        <v>190.7105589908504</v>
+        <v>190.7105589908502</v>
       </c>
       <c r="T8" t="n">
-        <v>219.5785755046101</v>
+        <v>219.57857550461</v>
       </c>
       <c r="U8" t="n">
         <v>251.2813737702553</v>
@@ -27944,43 +27944,43 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.9136125302015</v>
+        <v>136.9136125302014</v>
       </c>
       <c r="H9" t="n">
-        <v>108.0834705440132</v>
+        <v>108.0834705440131</v>
       </c>
       <c r="I9" t="n">
-        <v>84.72083890735971</v>
+        <v>84.72083890735958</v>
       </c>
       <c r="J9" t="n">
-        <v>86.22106658048014</v>
+        <v>86.2210665804798</v>
       </c>
       <c r="K9" t="n">
-        <v>68.42126847655803</v>
+        <v>68.42126847655744</v>
       </c>
       <c r="L9" t="n">
-        <v>45.2103935644401</v>
+        <v>45.21039356443931</v>
       </c>
       <c r="M9" t="n">
-        <v>33.20600476000185</v>
+        <v>33.20600476000092</v>
       </c>
       <c r="N9" t="n">
-        <v>19.53068211486496</v>
+        <v>19.53068211486402</v>
       </c>
       <c r="O9" t="n">
-        <v>40.31099608107402</v>
+        <v>40.31099608107317</v>
       </c>
       <c r="P9" t="n">
-        <v>51.88147797593878</v>
+        <v>51.8814779759381</v>
       </c>
       <c r="Q9" t="n">
-        <v>85.10482479172813</v>
+        <v>85.10482479172768</v>
       </c>
       <c r="R9" t="n">
-        <v>118.9877057846753</v>
+        <v>118.9877057846751</v>
       </c>
       <c r="S9" t="n">
-        <v>163.6978811003561</v>
+        <v>163.697881100356</v>
       </c>
       <c r="T9" t="n">
         <v>198.4319113363329</v>
@@ -28029,37 +28029,37 @@
         <v>159.0227323654497</v>
       </c>
       <c r="I10" t="n">
-        <v>144.611734651489</v>
+        <v>144.6117346514889</v>
       </c>
       <c r="J10" t="n">
-        <v>101.513896915618</v>
+        <v>101.5138969156178</v>
       </c>
       <c r="K10" t="n">
-        <v>87.13928576293813</v>
+        <v>87.13928576293779</v>
       </c>
       <c r="L10" t="n">
-        <v>81.30040830362908</v>
+        <v>81.30040830362864</v>
       </c>
       <c r="M10" t="n">
-        <v>82.42868643397443</v>
+        <v>82.42868643397397</v>
       </c>
       <c r="N10" t="n">
-        <v>72.53182165325471</v>
+        <v>72.53182165325424</v>
       </c>
       <c r="O10" t="n">
-        <v>87.51314854626202</v>
+        <v>87.51314854626159</v>
       </c>
       <c r="P10" t="n">
-        <v>94.13713324236565</v>
+        <v>94.13713324236528</v>
       </c>
       <c r="Q10" t="n">
-        <v>121.3249421735477</v>
+        <v>121.3249421735474</v>
       </c>
       <c r="R10" t="n">
-        <v>161.0877053421166</v>
+        <v>161.0877053421165</v>
       </c>
       <c r="S10" t="n">
-        <v>217.7355021758327</v>
+        <v>217.7355021758326</v>
       </c>
       <c r="T10" t="n">
         <v>226.4056233068753</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="C11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="D11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="E11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="F11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="G11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="H11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="I11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="T11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="U11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="V11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="W11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="X11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="Y11" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.51344036322882</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="D12" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="E12" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="F12" t="n">
-        <v>38.51344036322882</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>4.930410365517105</v>
+        <v>20.48599709752182</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>22.95785363122035</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>38.51344036322894</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="C13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="D13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="E13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="F13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="G13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="H13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="I13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="J13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="K13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="L13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="M13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="N13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="O13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="P13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="R13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="S13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="T13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="U13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="V13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="W13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="X13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="C14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="D14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="E14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="F14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="G14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="H14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="I14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="T14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="U14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="V14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="W14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="X14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35.83408374267273</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="E15" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="F15" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="G15" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>4.930410365519876</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.609766986072998</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28466,7 +28466,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="C16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="D16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="E16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="F16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="G16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="H16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="I16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="J16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="K16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="L16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="M16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="N16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="O16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="P16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="R16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="S16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="T16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="U16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="V16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="W16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="X16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.51344036322882</v>
+        <v>38.51344036322894</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I17" t="n">
-        <v>50.24240945634176</v>
+        <v>50.24240945634187</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="18">
@@ -28649,10 +28649,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.128171725455076</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.609766986073026</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28700,13 +28700,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>92.2031249674842</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="J19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="K19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="L19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="M19" t="n">
-        <v>89.45287313220643</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="O19" t="n">
-        <v>97.68472022810488</v>
+        <v>89.45287313220666</v>
       </c>
       <c r="P19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I20" t="n">
-        <v>50.24240945634176</v>
+        <v>50.24240945634187</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="21">
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -28889,13 +28889,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>9.05452887171981</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>90.75836308184009</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.609766986073026</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28943,7 +28943,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>92.20312496748411</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="K22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="L22" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="N22" t="n">
-        <v>97.68472022810488</v>
+        <v>89.45287313220683</v>
       </c>
       <c r="O22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="P22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.67200531720924</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="R22" t="n">
-        <v>93.46558804310193</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="24">
@@ -29132,10 +29132,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="I24" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68472022810489</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="K25" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="M25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="N25" t="n">
-        <v>85.08100106221849</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="P25" t="n">
-        <v>97.68472022810489</v>
+        <v>77.66073332242681</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="C26" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="D26" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="E26" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="F26" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="G26" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="H26" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="I26" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="J26" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="K26" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="L26" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="M26" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="N26" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="O26" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="P26" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Q26" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="R26" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="S26" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="T26" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="U26" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="V26" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="W26" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="X26" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Y26" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="C28" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="D28" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="E28" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="F28" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="G28" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="H28" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="I28" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="J28" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="K28" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="L28" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="M28" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="N28" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="O28" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="P28" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Q28" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="R28" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="S28" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="T28" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="U28" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="V28" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="W28" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="X28" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Y28" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="C29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="D29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="E29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="F29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="G29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="H29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="I29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="J29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="K29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="L29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487566</v>
       </c>
       <c r="M29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="N29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="O29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="P29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Q29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="R29" t="n">
-        <v>59.17127986487613</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="S29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="T29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="U29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="V29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="W29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="X29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Y29" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="C31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="D31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="E31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="F31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="G31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="H31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="I31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="J31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="K31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="L31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="M31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="N31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="O31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="P31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Q31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="R31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="S31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="T31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="U31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="V31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="W31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="X31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="Y31" t="n">
-        <v>59.17127986487599</v>
+        <v>59.17127986487601</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="C32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="D32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="E32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="F32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="G32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="H32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="I32" t="n">
-        <v>59.17127986487587</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="J32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="K32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="L32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="M32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="N32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="O32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487515</v>
       </c>
       <c r="P32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="Q32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="R32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="S32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="T32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="U32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="V32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="W32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="X32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="Y32" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="C34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="D34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="E34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="F34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="G34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="H34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="I34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="J34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="K34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="L34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="M34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="N34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="O34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="P34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="Q34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="R34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="S34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="T34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="U34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="V34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="W34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="X34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
       <c r="Y34" t="n">
-        <v>59.17127986487597</v>
+        <v>59.17127986487607</v>
       </c>
     </row>
     <row r="35">
@@ -30168,25 +30168,25 @@
         <v>97.68472022810489</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="L37" t="n">
         <v>97.68472022810489</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>77.66073332242769</v>
       </c>
       <c r="O37" t="n">
         <v>97.68472022810489</v>
       </c>
       <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
         <v>97.68472022810489</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>77.66073332242789</v>
       </c>
       <c r="R37" t="n">
         <v>97.68472022810489</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292893</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30262,7 +30262,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
     </row>
     <row r="39">
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810469</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810469</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>86.4133008804892</v>
+        <v>77.66073332242738</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810469</v>
+        <v>97.68472022810491</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30493,7 +30493,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="42">
@@ -30548,7 +30548,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-1.77635683940025e-13</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810477</v>
+        <v>76.32843350416087</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810477</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>85.08100106222133</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810477</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="45">
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>-2.202682480856311e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68472022810477</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810477</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810477</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>76.32843350416411</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810477</v>
+        <v>86.41330088048505</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810477</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810477</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8034892197650005</v>
+        <v>0.8034892197650072</v>
       </c>
       <c r="H8" t="n">
-        <v>8.228733971918313</v>
+        <v>8.228733971918382</v>
       </c>
       <c r="I8" t="n">
-        <v>30.97651814499021</v>
+        <v>30.97651814499047</v>
       </c>
       <c r="J8" t="n">
-        <v>68.19514316602977</v>
+        <v>68.19514316603035</v>
       </c>
       <c r="K8" t="n">
-        <v>102.2068418386823</v>
+        <v>102.2068418386831</v>
       </c>
       <c r="L8" t="n">
-        <v>126.7966250480654</v>
+        <v>126.7966250480665</v>
       </c>
       <c r="M8" t="n">
-        <v>141.0856764600613</v>
+        <v>141.0856764600624</v>
       </c>
       <c r="N8" t="n">
-        <v>143.3685902057186</v>
+        <v>143.3685902057198</v>
       </c>
       <c r="O8" t="n">
-        <v>135.3788942766803</v>
+        <v>135.3788942766815</v>
       </c>
       <c r="P8" t="n">
-        <v>115.5427541637319</v>
+        <v>115.5427541637328</v>
       </c>
       <c r="Q8" t="n">
-        <v>86.76779648089776</v>
+        <v>86.76779648089848</v>
       </c>
       <c r="R8" t="n">
-        <v>50.47217970106325</v>
+        <v>50.47217970106368</v>
       </c>
       <c r="S8" t="n">
-        <v>18.30951059539497</v>
+        <v>18.30951059539512</v>
       </c>
       <c r="T8" t="n">
-        <v>3.517274059521291</v>
+        <v>3.517274059521321</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06427913758120003</v>
+        <v>0.06427913758120056</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4299046330091702</v>
+        <v>0.4299046330091738</v>
       </c>
       <c r="H9" t="n">
-        <v>4.151973692483302</v>
+        <v>4.151973692483337</v>
       </c>
       <c r="I9" t="n">
-        <v>14.80154109264029</v>
+        <v>14.80154109264041</v>
       </c>
       <c r="J9" t="n">
-        <v>40.61656008618656</v>
+        <v>40.6165600861869</v>
       </c>
       <c r="K9" t="n">
-        <v>69.42017049780097</v>
+        <v>69.42017049780155</v>
       </c>
       <c r="L9" t="n">
-        <v>93.34398621543409</v>
+        <v>93.34398621543487</v>
       </c>
       <c r="M9" t="n">
-        <v>108.9280291620165</v>
+        <v>108.9280291620174</v>
       </c>
       <c r="N9" t="n">
-        <v>111.8110299684683</v>
+        <v>111.8110299684693</v>
       </c>
       <c r="O9" t="n">
-        <v>102.2852483633704</v>
+        <v>102.2852483633713</v>
       </c>
       <c r="P9" t="n">
-        <v>82.09292943839147</v>
+        <v>82.09292943839215</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.87694929429338</v>
+        <v>54.87694929429384</v>
       </c>
       <c r="R9" t="n">
-        <v>26.69179817928866</v>
+        <v>26.69179817928889</v>
       </c>
       <c r="S9" t="n">
-        <v>7.98529000348173</v>
+        <v>7.985290003481797</v>
       </c>
       <c r="T9" t="n">
-        <v>1.732817358488716</v>
+        <v>1.732817358488731</v>
       </c>
       <c r="U9" t="n">
-        <v>0.028283199540077</v>
+        <v>0.02828319954007723</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3604176028822925</v>
+        <v>0.3604176028822955</v>
       </c>
       <c r="H10" t="n">
-        <v>3.204440141989839</v>
+        <v>3.204440141989866</v>
       </c>
       <c r="I10" t="n">
-        <v>10.83874027576931</v>
+        <v>10.8387402757694</v>
       </c>
       <c r="J10" t="n">
-        <v>25.48152452377808</v>
+        <v>25.48152452377829</v>
       </c>
       <c r="K10" t="n">
-        <v>41.87397240759724</v>
+        <v>41.87397240759759</v>
       </c>
       <c r="L10" t="n">
-        <v>53.5842679776092</v>
+        <v>53.58426797760965</v>
       </c>
       <c r="M10" t="n">
-        <v>56.49709751363062</v>
+        <v>56.49709751363109</v>
       </c>
       <c r="N10" t="n">
-        <v>55.15372281197848</v>
+        <v>55.15372281197894</v>
       </c>
       <c r="O10" t="n">
-        <v>50.94338990558077</v>
+        <v>50.94338990558121</v>
       </c>
       <c r="P10" t="n">
-        <v>43.59087080678197</v>
+        <v>43.59087080678234</v>
       </c>
       <c r="Q10" t="n">
-        <v>30.18005945589815</v>
+        <v>30.1800594558984</v>
       </c>
       <c r="R10" t="n">
-        <v>16.20568603505289</v>
+        <v>16.20568603505303</v>
       </c>
       <c r="S10" t="n">
-        <v>6.281095861139585</v>
+        <v>6.281095861139638</v>
       </c>
       <c r="T10" t="n">
-        <v>1.539966121406158</v>
+        <v>1.539966121406171</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01965914197539779</v>
+        <v>0.01965914197539796</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.156240973064367</v>
+        <v>4.156240973064373</v>
       </c>
       <c r="H11" t="n">
-        <v>42.56510286539547</v>
+        <v>42.56510286539552</v>
       </c>
       <c r="I11" t="n">
-        <v>160.2334801140642</v>
+        <v>160.2334801140644</v>
       </c>
       <c r="J11" t="n">
-        <v>352.7557572876222</v>
+        <v>352.7557572876226</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689437677437</v>
+        <v>528.6894376774376</v>
       </c>
       <c r="L11" t="n">
-        <v>655.8859973568558</v>
+        <v>655.8859973568565</v>
       </c>
       <c r="M11" t="n">
-        <v>729.7995477615892</v>
+        <v>729.79954776159</v>
       </c>
       <c r="N11" t="n">
-        <v>741.6084674263084</v>
+        <v>741.6084674263092</v>
       </c>
       <c r="O11" t="n">
-        <v>700.2798462503995</v>
+        <v>700.2798462504003</v>
       </c>
       <c r="P11" t="n">
-        <v>597.6726472278729</v>
+        <v>597.6726472278735</v>
       </c>
       <c r="Q11" t="n">
-        <v>448.827267380005</v>
+        <v>448.8272673800055</v>
       </c>
       <c r="R11" t="n">
-        <v>261.0794720242548</v>
+        <v>261.0794720242551</v>
       </c>
       <c r="S11" t="n">
-        <v>94.71034117370438</v>
+        <v>94.71034117370448</v>
       </c>
       <c r="T11" t="n">
-        <v>18.19394485958928</v>
+        <v>18.1939448595893</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3324992778451494</v>
+        <v>0.3324992778451497</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.223784969691942</v>
+        <v>2.223784969691944</v>
       </c>
       <c r="H12" t="n">
-        <v>21.47708115465639</v>
+        <v>21.47708115465641</v>
       </c>
       <c r="I12" t="n">
-        <v>76.56452636877957</v>
+        <v>76.56452636877965</v>
       </c>
       <c r="J12" t="n">
-        <v>210.0989124216409</v>
+        <v>210.0989124216411</v>
       </c>
       <c r="K12" t="n">
-        <v>359.0925053910009</v>
+        <v>359.0925053910013</v>
       </c>
       <c r="L12" t="n">
-        <v>482.8441882657876</v>
+        <v>482.8441882657881</v>
       </c>
       <c r="M12" t="n">
-        <v>563.4563934171204</v>
+        <v>563.4563934171209</v>
       </c>
       <c r="N12" t="n">
-        <v>578.3694075340458</v>
+        <v>578.3694075340464</v>
       </c>
       <c r="O12" t="n">
-        <v>529.0950142582401</v>
+        <v>529.0950142582407</v>
       </c>
       <c r="P12" t="n">
-        <v>424.6453947826656</v>
+        <v>424.6453947826661</v>
       </c>
       <c r="Q12" t="n">
-        <v>283.8642006926065</v>
+        <v>283.8642006926067</v>
       </c>
       <c r="R12" t="n">
-        <v>138.069736977891</v>
+        <v>138.0697369778911</v>
       </c>
       <c r="S12" t="n">
-        <v>41.30583046774284</v>
+        <v>41.30583046774288</v>
       </c>
       <c r="T12" t="n">
-        <v>8.963413978714446</v>
+        <v>8.963413978714454</v>
       </c>
       <c r="U12" t="n">
-        <v>0.146301642742891</v>
+        <v>0.1463016427428911</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.864346616811047</v>
+        <v>1.864346616811049</v>
       </c>
       <c r="H13" t="n">
-        <v>16.57573628401095</v>
+        <v>16.57573628401097</v>
       </c>
       <c r="I13" t="n">
-        <v>56.06598734919039</v>
+        <v>56.06598734919046</v>
       </c>
       <c r="J13" t="n">
-        <v>131.809305808541</v>
+        <v>131.8093058085411</v>
       </c>
       <c r="K13" t="n">
-        <v>216.6031796622288</v>
+        <v>216.6031796622291</v>
       </c>
       <c r="L13" t="n">
-        <v>277.1774961029805</v>
+        <v>277.1774961029809</v>
       </c>
       <c r="M13" t="n">
-        <v>292.2448064879352</v>
+        <v>292.2448064879355</v>
       </c>
       <c r="N13" t="n">
-        <v>285.2958781889124</v>
+        <v>285.2958781889128</v>
       </c>
       <c r="O13" t="n">
-        <v>263.5169199834378</v>
+        <v>263.5169199834381</v>
       </c>
       <c r="P13" t="n">
-        <v>225.4842490004923</v>
+        <v>225.4842490004926</v>
       </c>
       <c r="Q13" t="n">
-        <v>156.1136062495141</v>
+        <v>156.1136062495143</v>
       </c>
       <c r="R13" t="n">
-        <v>83.82780333406758</v>
+        <v>83.82780333406767</v>
       </c>
       <c r="S13" t="n">
-        <v>32.49047694933432</v>
+        <v>32.49047694933435</v>
       </c>
       <c r="T13" t="n">
-        <v>7.965844635465379</v>
+        <v>7.965844635465387</v>
       </c>
       <c r="U13" t="n">
-        <v>0.101691633644239</v>
+        <v>0.1016916336442391</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.156240973064367</v>
+        <v>4.156240973064364</v>
       </c>
       <c r="H14" t="n">
-        <v>42.56510286539547</v>
+        <v>42.56510286539543</v>
       </c>
       <c r="I14" t="n">
-        <v>160.2334801140642</v>
+        <v>160.233480114064</v>
       </c>
       <c r="J14" t="n">
-        <v>352.7557572876222</v>
+        <v>352.7557572876219</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689437677437</v>
+        <v>528.6894376774366</v>
       </c>
       <c r="L14" t="n">
-        <v>655.8859973568558</v>
+        <v>655.8859973568552</v>
       </c>
       <c r="M14" t="n">
-        <v>729.7995477615892</v>
+        <v>729.7995477615885</v>
       </c>
       <c r="N14" t="n">
-        <v>741.6084674263084</v>
+        <v>741.6084674263077</v>
       </c>
       <c r="O14" t="n">
-        <v>700.2798462503995</v>
+        <v>700.2798462503989</v>
       </c>
       <c r="P14" t="n">
-        <v>597.6726472278729</v>
+        <v>597.6726472278723</v>
       </c>
       <c r="Q14" t="n">
-        <v>448.827267380005</v>
+        <v>448.8272673800046</v>
       </c>
       <c r="R14" t="n">
-        <v>261.0794720242548</v>
+        <v>261.0794720242546</v>
       </c>
       <c r="S14" t="n">
-        <v>94.71034117370438</v>
+        <v>94.71034117370429</v>
       </c>
       <c r="T14" t="n">
-        <v>18.19394485958928</v>
+        <v>18.19394485958926</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3324992778451494</v>
+        <v>0.332499277845149</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.223784969691942</v>
+        <v>2.223784969691939</v>
       </c>
       <c r="H15" t="n">
-        <v>21.47708115465639</v>
+        <v>21.47708115465637</v>
       </c>
       <c r="I15" t="n">
-        <v>76.56452636877957</v>
+        <v>76.56452636877951</v>
       </c>
       <c r="J15" t="n">
-        <v>210.0989124216409</v>
+        <v>210.0989124216407</v>
       </c>
       <c r="K15" t="n">
-        <v>359.0925053910009</v>
+        <v>359.0925053910006</v>
       </c>
       <c r="L15" t="n">
-        <v>482.8441882657876</v>
+        <v>482.8441882657872</v>
       </c>
       <c r="M15" t="n">
-        <v>563.4563934171204</v>
+        <v>563.4563934171199</v>
       </c>
       <c r="N15" t="n">
-        <v>578.3694075340458</v>
+        <v>578.3694075340453</v>
       </c>
       <c r="O15" t="n">
-        <v>529.0950142582401</v>
+        <v>529.0950142582396</v>
       </c>
       <c r="P15" t="n">
-        <v>424.6453947826656</v>
+        <v>424.6453947826652</v>
       </c>
       <c r="Q15" t="n">
-        <v>283.8642006926065</v>
+        <v>283.8642006926062</v>
       </c>
       <c r="R15" t="n">
-        <v>138.069736977891</v>
+        <v>138.0697369778908</v>
       </c>
       <c r="S15" t="n">
-        <v>41.30583046774284</v>
+        <v>41.30583046774279</v>
       </c>
       <c r="T15" t="n">
-        <v>8.963413978714446</v>
+        <v>8.963413978714437</v>
       </c>
       <c r="U15" t="n">
-        <v>0.146301642742891</v>
+        <v>0.1463016427428908</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.864346616811047</v>
+        <v>1.864346616811045</v>
       </c>
       <c r="H16" t="n">
-        <v>16.57573628401095</v>
+        <v>16.57573628401094</v>
       </c>
       <c r="I16" t="n">
-        <v>56.06598734919039</v>
+        <v>56.06598734919035</v>
       </c>
       <c r="J16" t="n">
-        <v>131.809305808541</v>
+        <v>131.8093058085409</v>
       </c>
       <c r="K16" t="n">
-        <v>216.6031796622288</v>
+        <v>216.6031796622286</v>
       </c>
       <c r="L16" t="n">
-        <v>277.1774961029805</v>
+        <v>277.1774961029803</v>
       </c>
       <c r="M16" t="n">
-        <v>292.2448064879352</v>
+        <v>292.2448064879349</v>
       </c>
       <c r="N16" t="n">
-        <v>285.2958781889124</v>
+        <v>285.2958781889122</v>
       </c>
       <c r="O16" t="n">
-        <v>263.5169199834378</v>
+        <v>263.5169199834376</v>
       </c>
       <c r="P16" t="n">
-        <v>225.4842490004923</v>
+        <v>225.4842490004921</v>
       </c>
       <c r="Q16" t="n">
-        <v>156.1136062495141</v>
+        <v>156.113606249514</v>
       </c>
       <c r="R16" t="n">
-        <v>83.82780333406758</v>
+        <v>83.82780333406751</v>
       </c>
       <c r="S16" t="n">
-        <v>32.49047694933432</v>
+        <v>32.49047694933429</v>
       </c>
       <c r="T16" t="n">
-        <v>7.965844635465379</v>
+        <v>7.965844635465372</v>
       </c>
       <c r="U16" t="n">
-        <v>0.101691633644239</v>
+        <v>0.1016916336442389</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.156240973064366</v>
+        <v>4.156240973064364</v>
       </c>
       <c r="H17" t="n">
-        <v>42.56510286539546</v>
+        <v>42.56510286539543</v>
       </c>
       <c r="I17" t="n">
-        <v>160.2334801140642</v>
+        <v>160.233480114064</v>
       </c>
       <c r="J17" t="n">
-        <v>352.7557572876221</v>
+        <v>352.7557572876219</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6894376774369</v>
+        <v>528.6894376774366</v>
       </c>
       <c r="L17" t="n">
-        <v>655.8859973568556</v>
+        <v>655.8859973568552</v>
       </c>
       <c r="M17" t="n">
-        <v>729.799547761589</v>
+        <v>729.7995477615885</v>
       </c>
       <c r="N17" t="n">
-        <v>741.6084674263083</v>
+        <v>741.6084674263077</v>
       </c>
       <c r="O17" t="n">
-        <v>700.2798462503994</v>
+        <v>700.2798462503989</v>
       </c>
       <c r="P17" t="n">
-        <v>597.6726472278727</v>
+        <v>597.6726472278723</v>
       </c>
       <c r="Q17" t="n">
-        <v>448.827267380005</v>
+        <v>448.8272673800046</v>
       </c>
       <c r="R17" t="n">
-        <v>261.0794720242548</v>
+        <v>261.0794720242546</v>
       </c>
       <c r="S17" t="n">
-        <v>94.71034117370435</v>
+        <v>94.71034117370429</v>
       </c>
       <c r="T17" t="n">
-        <v>18.19394485958928</v>
+        <v>18.19394485958926</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3324992778451493</v>
+        <v>0.332499277845149</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.223784969691941</v>
+        <v>2.223784969691939</v>
       </c>
       <c r="H18" t="n">
-        <v>21.47708115465638</v>
+        <v>21.47708115465637</v>
       </c>
       <c r="I18" t="n">
-        <v>76.56452636877955</v>
+        <v>76.56452636877951</v>
       </c>
       <c r="J18" t="n">
-        <v>210.0989124216408</v>
+        <v>210.0989124216407</v>
       </c>
       <c r="K18" t="n">
-        <v>359.0925053910009</v>
+        <v>359.0925053910006</v>
       </c>
       <c r="L18" t="n">
-        <v>482.8441882657875</v>
+        <v>482.8441882657872</v>
       </c>
       <c r="M18" t="n">
-        <v>563.4563934171202</v>
+        <v>563.4563934171199</v>
       </c>
       <c r="N18" t="n">
-        <v>578.3694075340456</v>
+        <v>578.3694075340453</v>
       </c>
       <c r="O18" t="n">
-        <v>529.09501425824</v>
+        <v>529.0950142582396</v>
       </c>
       <c r="P18" t="n">
-        <v>424.6453947826655</v>
+        <v>424.6453947826652</v>
       </c>
       <c r="Q18" t="n">
-        <v>283.8642006926064</v>
+        <v>283.8642006926062</v>
       </c>
       <c r="R18" t="n">
-        <v>138.0697369778909</v>
+        <v>138.0697369778908</v>
       </c>
       <c r="S18" t="n">
-        <v>41.30583046774282</v>
+        <v>41.30583046774279</v>
       </c>
       <c r="T18" t="n">
-        <v>8.963413978714444</v>
+        <v>8.963413978714437</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1463016427428909</v>
+        <v>0.1463016427428908</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.864346616811046</v>
+        <v>1.864346616811045</v>
       </c>
       <c r="H19" t="n">
-        <v>16.57573628401095</v>
+        <v>16.57573628401094</v>
       </c>
       <c r="I19" t="n">
-        <v>56.06598734919039</v>
+        <v>56.06598734919035</v>
       </c>
       <c r="J19" t="n">
-        <v>131.809305808541</v>
+        <v>131.8093058085409</v>
       </c>
       <c r="K19" t="n">
-        <v>216.6031796622288</v>
+        <v>216.6031796622286</v>
       </c>
       <c r="L19" t="n">
-        <v>277.1774961029805</v>
+        <v>277.1774961029803</v>
       </c>
       <c r="M19" t="n">
-        <v>292.2448064879351</v>
+        <v>292.2448064879349</v>
       </c>
       <c r="N19" t="n">
-        <v>285.2958781889124</v>
+        <v>285.2958781889122</v>
       </c>
       <c r="O19" t="n">
-        <v>263.5169199834378</v>
+        <v>263.5169199834376</v>
       </c>
       <c r="P19" t="n">
-        <v>225.4842490004922</v>
+        <v>225.4842490004921</v>
       </c>
       <c r="Q19" t="n">
         <v>156.113606249514</v>
       </c>
       <c r="R19" t="n">
-        <v>83.82780333406755</v>
+        <v>83.82780333406751</v>
       </c>
       <c r="S19" t="n">
-        <v>32.49047694933431</v>
+        <v>32.49047694933429</v>
       </c>
       <c r="T19" t="n">
-        <v>7.965844635465377</v>
+        <v>7.965844635465372</v>
       </c>
       <c r="U19" t="n">
-        <v>0.101691633644239</v>
+        <v>0.1016916336442389</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.156240973064366</v>
+        <v>4.156240973064364</v>
       </c>
       <c r="H20" t="n">
-        <v>42.56510286539546</v>
+        <v>42.56510286539543</v>
       </c>
       <c r="I20" t="n">
-        <v>160.2334801140642</v>
+        <v>160.233480114064</v>
       </c>
       <c r="J20" t="n">
-        <v>352.7557572876221</v>
+        <v>352.7557572876219</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6894376774369</v>
+        <v>528.6894376774366</v>
       </c>
       <c r="L20" t="n">
-        <v>655.8859973568556</v>
+        <v>655.8859973568552</v>
       </c>
       <c r="M20" t="n">
-        <v>729.799547761589</v>
+        <v>729.7995477615885</v>
       </c>
       <c r="N20" t="n">
-        <v>741.6084674263083</v>
+        <v>741.6084674263077</v>
       </c>
       <c r="O20" t="n">
-        <v>700.2798462503994</v>
+        <v>700.2798462503989</v>
       </c>
       <c r="P20" t="n">
-        <v>597.6726472278727</v>
+        <v>597.6726472278719</v>
       </c>
       <c r="Q20" t="n">
-        <v>448.827267380005</v>
+        <v>448.8272673800046</v>
       </c>
       <c r="R20" t="n">
-        <v>261.0794720242551</v>
+        <v>261.0794720242546</v>
       </c>
       <c r="S20" t="n">
-        <v>94.71034117370435</v>
+        <v>94.71034117370429</v>
       </c>
       <c r="T20" t="n">
-        <v>18.19394485958928</v>
+        <v>18.19394485958926</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3324992778451493</v>
+        <v>0.332499277845149</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.223784969691941</v>
+        <v>2.223784969691939</v>
       </c>
       <c r="H21" t="n">
-        <v>21.47708115465638</v>
+        <v>21.47708115465637</v>
       </c>
       <c r="I21" t="n">
-        <v>76.56452636877955</v>
+        <v>76.56452636877951</v>
       </c>
       <c r="J21" t="n">
-        <v>210.0989124216408</v>
+        <v>210.0989124216407</v>
       </c>
       <c r="K21" t="n">
-        <v>359.0925053910009</v>
+        <v>359.0925053910006</v>
       </c>
       <c r="L21" t="n">
-        <v>482.8441882657875</v>
+        <v>482.8441882657872</v>
       </c>
       <c r="M21" t="n">
-        <v>563.4563934171202</v>
+        <v>563.4563934171199</v>
       </c>
       <c r="N21" t="n">
-        <v>578.3694075340456</v>
+        <v>578.3694075340453</v>
       </c>
       <c r="O21" t="n">
-        <v>529.09501425824</v>
+        <v>529.0950142582396</v>
       </c>
       <c r="P21" t="n">
-        <v>424.6453947826655</v>
+        <v>424.6453947826652</v>
       </c>
       <c r="Q21" t="n">
-        <v>283.8642006926064</v>
+        <v>283.8642006926062</v>
       </c>
       <c r="R21" t="n">
-        <v>138.0697369778909</v>
+        <v>138.0697369778908</v>
       </c>
       <c r="S21" t="n">
-        <v>41.30583046774282</v>
+        <v>41.30583046774279</v>
       </c>
       <c r="T21" t="n">
-        <v>8.963413978714444</v>
+        <v>8.963413978714437</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1463016427428909</v>
+        <v>0.1463016427428908</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.864346616811046</v>
+        <v>1.864346616811045</v>
       </c>
       <c r="H22" t="n">
-        <v>16.57573628401095</v>
+        <v>16.57573628401094</v>
       </c>
       <c r="I22" t="n">
-        <v>56.06598734919039</v>
+        <v>56.06598734919035</v>
       </c>
       <c r="J22" t="n">
-        <v>131.809305808541</v>
+        <v>131.8093058085409</v>
       </c>
       <c r="K22" t="n">
-        <v>216.6031796622288</v>
+        <v>216.6031796622286</v>
       </c>
       <c r="L22" t="n">
-        <v>277.1774961029805</v>
+        <v>277.1774961029803</v>
       </c>
       <c r="M22" t="n">
-        <v>292.2448064879351</v>
+        <v>292.2448064879349</v>
       </c>
       <c r="N22" t="n">
-        <v>285.2958781889124</v>
+        <v>285.2958781889122</v>
       </c>
       <c r="O22" t="n">
-        <v>263.5169199834378</v>
+        <v>263.5169199834376</v>
       </c>
       <c r="P22" t="n">
-        <v>225.4842490004922</v>
+        <v>225.4842490004921</v>
       </c>
       <c r="Q22" t="n">
         <v>156.113606249514</v>
       </c>
       <c r="R22" t="n">
-        <v>83.82780333406755</v>
+        <v>83.82780333406751</v>
       </c>
       <c r="S22" t="n">
-        <v>32.49047694933431</v>
+        <v>32.49047694933429</v>
       </c>
       <c r="T22" t="n">
-        <v>7.965844635465377</v>
+        <v>7.965844635465372</v>
       </c>
       <c r="U22" t="n">
-        <v>0.101691633644239</v>
+        <v>0.1016916336442389</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33734,13 +33734,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -34369,7 +34369,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003823</v>
       </c>
       <c r="L44" t="n">
         <v>691.3565293623194</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>171.7098527609359</v>
+        <v>171.7098527609363</v>
       </c>
       <c r="K11" t="n">
-        <v>308.5995866324565</v>
+        <v>308.599586632457</v>
       </c>
       <c r="L11" t="n">
-        <v>420.1195823868686</v>
+        <v>420.1195823868692</v>
       </c>
       <c r="M11" t="n">
-        <v>499.4533145343165</v>
+        <v>499.4533145343173</v>
       </c>
       <c r="N11" t="n">
-        <v>512.1954038297174</v>
+        <v>512.1954038297183</v>
       </c>
       <c r="O11" t="n">
-        <v>470.1816348287127</v>
+        <v>470.1816348287135</v>
       </c>
       <c r="P11" t="n">
-        <v>366.4396514726033</v>
+        <v>366.439651472604</v>
       </c>
       <c r="Q11" t="n">
-        <v>226.5215775055555</v>
+        <v>226.5215775055561</v>
       </c>
       <c r="R11" t="n">
-        <v>45.49393421012269</v>
+        <v>45.49393421012297</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>83.26128575497418</v>
+        <v>83.26128575497441</v>
       </c>
       <c r="K12" t="n">
-        <v>221.2510664166419</v>
+        <v>221.2510664166423</v>
       </c>
       <c r="L12" t="n">
-        <v>344.2898084859134</v>
+        <v>344.289808485914</v>
       </c>
       <c r="M12" t="n">
-        <v>421.322359495102</v>
+        <v>421.3223594951026</v>
       </c>
       <c r="N12" t="n">
-        <v>447.0276954507125</v>
+        <v>447.0276954507132</v>
       </c>
       <c r="O12" t="n">
-        <v>386.4987698137957</v>
+        <v>386.4987698137962</v>
       </c>
       <c r="P12" t="n">
-        <v>290.6709873683354</v>
+        <v>290.6709873683358</v>
       </c>
       <c r="Q12" t="n">
-        <v>143.8824266065849</v>
+        <v>143.8824266065852</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>76.96356605509703</v>
+        <v>76.96356605509729</v>
       </c>
       <c r="K13" t="n">
-        <v>232.8471281995748</v>
+        <v>232.8471281995751</v>
       </c>
       <c r="L13" t="n">
-        <v>343.2809617265254</v>
+        <v>343.2809617265259</v>
       </c>
       <c r="M13" t="n">
-        <v>370.3421238130046</v>
+        <v>370.3421238130051</v>
       </c>
       <c r="N13" t="n">
-        <v>367.9414909313698</v>
+        <v>367.9414909313703</v>
       </c>
       <c r="O13" t="n">
-        <v>326.6154882607063</v>
+        <v>326.6154882607067</v>
       </c>
       <c r="P13" t="n">
-        <v>261.2762486286146</v>
+        <v>261.276248628615</v>
       </c>
       <c r="Q13" t="n">
-        <v>108.4650033610485</v>
+        <v>108.4650033610488</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>171.7098527609359</v>
+        <v>171.7098527609356</v>
       </c>
       <c r="K14" t="n">
-        <v>308.5995866324565</v>
+        <v>308.599586632456</v>
       </c>
       <c r="L14" t="n">
-        <v>420.1195823868686</v>
+        <v>420.119582386868</v>
       </c>
       <c r="M14" t="n">
-        <v>499.4533145343165</v>
+        <v>499.4533145343158</v>
       </c>
       <c r="N14" t="n">
-        <v>512.1954038297174</v>
+        <v>512.1954038297167</v>
       </c>
       <c r="O14" t="n">
-        <v>470.1816348287127</v>
+        <v>470.1816348287122</v>
       </c>
       <c r="P14" t="n">
-        <v>366.4396514726033</v>
+        <v>366.4396514726027</v>
       </c>
       <c r="Q14" t="n">
-        <v>226.5215775055555</v>
+        <v>226.5215775055551</v>
       </c>
       <c r="R14" t="n">
-        <v>45.49393421012269</v>
+        <v>45.49393421012246</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>83.26128575497418</v>
+        <v>83.26128575497398</v>
       </c>
       <c r="K15" t="n">
-        <v>221.2510664166419</v>
+        <v>221.2510664166416</v>
       </c>
       <c r="L15" t="n">
-        <v>344.2898084859134</v>
+        <v>344.289808485913</v>
       </c>
       <c r="M15" t="n">
-        <v>421.322359495102</v>
+        <v>421.3223594951016</v>
       </c>
       <c r="N15" t="n">
-        <v>447.0276954507125</v>
+        <v>447.027695450712</v>
       </c>
       <c r="O15" t="n">
-        <v>386.4987698137957</v>
+        <v>386.4987698137952</v>
       </c>
       <c r="P15" t="n">
-        <v>290.6709873683354</v>
+        <v>290.670987368335</v>
       </c>
       <c r="Q15" t="n">
-        <v>143.8824266065849</v>
+        <v>143.8824266065847</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,19 +35805,19 @@
         <v>76.96356605509703</v>
       </c>
       <c r="K16" t="n">
-        <v>232.8471281995748</v>
+        <v>232.8471281995747</v>
       </c>
       <c r="L16" t="n">
-        <v>343.2809617265254</v>
+        <v>343.2809617265253</v>
       </c>
       <c r="M16" t="n">
-        <v>370.3421238130046</v>
+        <v>370.3421238130044</v>
       </c>
       <c r="N16" t="n">
-        <v>367.9414909313698</v>
+        <v>367.9414909313697</v>
       </c>
       <c r="O16" t="n">
-        <v>326.6154882607063</v>
+        <v>326.6154882607062</v>
       </c>
       <c r="P16" t="n">
         <v>261.2762486286146</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>171.7098527609359</v>
+        <v>171.7098527609356</v>
       </c>
       <c r="K17" t="n">
-        <v>308.5995866324564</v>
+        <v>308.599586632456</v>
       </c>
       <c r="L17" t="n">
-        <v>420.1195823868683</v>
+        <v>420.119582386868</v>
       </c>
       <c r="M17" t="n">
-        <v>499.4533145343163</v>
+        <v>499.4533145343158</v>
       </c>
       <c r="N17" t="n">
-        <v>512.1954038297174</v>
+        <v>512.1954038297167</v>
       </c>
       <c r="O17" t="n">
-        <v>470.1816348287126</v>
+        <v>470.1816348287122</v>
       </c>
       <c r="P17" t="n">
-        <v>366.4396514726032</v>
+        <v>366.4396514726027</v>
       </c>
       <c r="Q17" t="n">
-        <v>226.5215775055555</v>
+        <v>226.5215775055551</v>
       </c>
       <c r="R17" t="n">
-        <v>45.49393421012263</v>
+        <v>45.49393421012246</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>83.26128575497412</v>
+        <v>83.26128575497398</v>
       </c>
       <c r="K18" t="n">
-        <v>221.2510664166419</v>
+        <v>221.2510664166416</v>
       </c>
       <c r="L18" t="n">
-        <v>344.2898084859133</v>
+        <v>344.289808485913</v>
       </c>
       <c r="M18" t="n">
-        <v>421.3223594951019</v>
+        <v>421.3223594951016</v>
       </c>
       <c r="N18" t="n">
-        <v>447.0276954507124</v>
+        <v>447.027695450712</v>
       </c>
       <c r="O18" t="n">
-        <v>386.4987698137955</v>
+        <v>386.4987698137952</v>
       </c>
       <c r="P18" t="n">
-        <v>290.6709873683353</v>
+        <v>290.670987368335</v>
       </c>
       <c r="Q18" t="n">
-        <v>143.8824266065849</v>
+        <v>143.8824266065847</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,25 +36042,25 @@
         <v>102.4986045972497</v>
       </c>
       <c r="K19" t="n">
-        <v>185.2746417197983</v>
+        <v>185.2746417197982</v>
       </c>
       <c r="L19" t="n">
-        <v>239.9775400498471</v>
+        <v>239.9775400498469</v>
       </c>
       <c r="M19" t="n">
-        <v>242.7718956725365</v>
+        <v>251.0037427684348</v>
       </c>
       <c r="N19" t="n">
-        <v>157.6103337236792</v>
+        <v>255.2950539517839</v>
       </c>
       <c r="O19" t="n">
-        <v>222.7451017596999</v>
+        <v>214.5132546638015</v>
       </c>
       <c r="P19" t="n">
-        <v>185.4409651794495</v>
+        <v>185.4409651794494</v>
       </c>
       <c r="Q19" t="n">
-        <v>102.2933248481731</v>
+        <v>4.608604620068121</v>
       </c>
       <c r="R19" t="n">
         <v>4.219132185002948</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>171.7098527609359</v>
+        <v>171.7098527609356</v>
       </c>
       <c r="K20" t="n">
-        <v>308.5995866324564</v>
+        <v>308.599586632456</v>
       </c>
       <c r="L20" t="n">
-        <v>420.1195823868683</v>
+        <v>420.119582386868</v>
       </c>
       <c r="M20" t="n">
-        <v>499.4533145343163</v>
+        <v>499.4533145343158</v>
       </c>
       <c r="N20" t="n">
-        <v>512.1954038297174</v>
+        <v>512.1954038297167</v>
       </c>
       <c r="O20" t="n">
-        <v>470.1816348287126</v>
+        <v>470.1816348287122</v>
       </c>
       <c r="P20" t="n">
-        <v>366.4396514726032</v>
+        <v>366.4396514726023</v>
       </c>
       <c r="Q20" t="n">
-        <v>226.5215775055555</v>
+        <v>226.5215775055551</v>
       </c>
       <c r="R20" t="n">
-        <v>45.49393421012297</v>
+        <v>45.49393421012246</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>83.26128575497412</v>
+        <v>83.26128575497398</v>
       </c>
       <c r="K21" t="n">
-        <v>221.2510664166419</v>
+        <v>221.2510664166416</v>
       </c>
       <c r="L21" t="n">
-        <v>344.2898084859133</v>
+        <v>344.289808485913</v>
       </c>
       <c r="M21" t="n">
-        <v>421.3223594951019</v>
+        <v>421.3223594951016</v>
       </c>
       <c r="N21" t="n">
-        <v>447.0276954507124</v>
+        <v>447.027695450712</v>
       </c>
       <c r="O21" t="n">
-        <v>386.4987698137955</v>
+        <v>386.4987698137952</v>
       </c>
       <c r="P21" t="n">
-        <v>290.6709873683353</v>
+        <v>290.670987368335</v>
       </c>
       <c r="Q21" t="n">
-        <v>143.8824266065849</v>
+        <v>143.8824266065847</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,31 +36276,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>4.813884369144844</v>
+        <v>102.4986045972497</v>
       </c>
       <c r="K22" t="n">
-        <v>185.2746417197983</v>
+        <v>185.2746417197982</v>
       </c>
       <c r="L22" t="n">
-        <v>239.9775400498471</v>
+        <v>142.292819821742</v>
       </c>
       <c r="M22" t="n">
-        <v>251.003742768435</v>
+        <v>251.0037427684348</v>
       </c>
       <c r="N22" t="n">
-        <v>255.295053951784</v>
+        <v>247.0632068558858</v>
       </c>
       <c r="O22" t="n">
-        <v>222.7451017596999</v>
+        <v>222.7451017596998</v>
       </c>
       <c r="P22" t="n">
-        <v>185.4409651794495</v>
+        <v>185.4409651794494</v>
       </c>
       <c r="Q22" t="n">
-        <v>98.28060993727745</v>
+        <v>102.293324848173</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>4.219132185002948</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36510,13 +36510,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.332299818266797</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K25" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L25" t="n">
         <v>254.9673908567486</v>
@@ -36525,19 +36525,19 @@
         <v>266.8084387121431</v>
       </c>
       <c r="N25" t="n">
-        <v>258.1202303852968</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O25" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P25" t="n">
-        <v>197.6352280591742</v>
+        <v>177.6112411534961</v>
       </c>
       <c r="Q25" t="n">
-        <v>110.7360003882471</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>8.752567558057592</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36601,10 +36601,10 @@
         <v>514.7613942572082</v>
       </c>
       <c r="M26" t="n">
-        <v>598.0923956951027</v>
+        <v>598.0923956951028</v>
       </c>
       <c r="N26" t="n">
-        <v>611.4731152777874</v>
+        <v>611.4731152777875</v>
       </c>
       <c r="O26" t="n">
         <v>567.2242807530952</v>
@@ -36753,25 +36753,25 @@
         <v>104.7496964779422</v>
       </c>
       <c r="K28" t="n">
-        <v>158.475173064543</v>
+        <v>158.4751730645431</v>
       </c>
       <c r="L28" t="n">
-        <v>216.4539504935197</v>
+        <v>378.9286520350742</v>
       </c>
       <c r="M28" t="n">
         <v>406.8046592583598</v>
       </c>
       <c r="N28" t="n">
-        <v>376.5771582528808</v>
+        <v>404.0282260324161</v>
       </c>
       <c r="O28" t="n">
         <v>361.5244100875158</v>
       </c>
       <c r="P28" t="n">
-        <v>294.1283510099864</v>
+        <v>159.1217876959453</v>
       </c>
       <c r="Q28" t="n">
-        <v>137.5655184027696</v>
+        <v>82.64631239572034</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,10 +36835,10 @@
         <v>396.3625664202765</v>
       </c>
       <c r="L29" t="n">
-        <v>514.7613942572082</v>
+        <v>514.7613942572078</v>
       </c>
       <c r="M29" t="n">
-        <v>598.0923956951027</v>
+        <v>598.0923956951028</v>
       </c>
       <c r="N29" t="n">
         <v>611.4731152777874</v>
@@ -36853,7 +36853,7 @@
         <v>309.9655846685955</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7844784071009</v>
+        <v>118.7844784071008</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>104.7496964779422</v>
       </c>
       <c r="K31" t="n">
-        <v>158.475173064543</v>
+        <v>265.2189394091956</v>
       </c>
       <c r="L31" t="n">
-        <v>367.51254362343</v>
+        <v>216.4539504935197</v>
       </c>
       <c r="M31" t="n">
-        <v>228.2949983489142</v>
+        <v>406.8046592583598</v>
       </c>
       <c r="N31" t="n">
         <v>404.0282260324161</v>
       </c>
       <c r="O31" t="n">
-        <v>361.5244100875158</v>
+        <v>227.3295759633274</v>
       </c>
       <c r="P31" t="n">
         <v>294.1283510099864</v>
       </c>
       <c r="Q31" t="n">
-        <v>137.5655184027696</v>
+        <v>137.5655184027697</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>17.59435009194992</v>
+        <v>17.5943500919501</v>
       </c>
       <c r="J32" t="n">
-        <v>249.9582808335885</v>
+        <v>249.9582808335886</v>
       </c>
       <c r="K32" t="n">
-        <v>396.3625664202765</v>
+        <v>396.3625664202766</v>
       </c>
       <c r="L32" t="n">
         <v>514.7613942572082</v>
       </c>
       <c r="M32" t="n">
-        <v>598.0923956951027</v>
+        <v>598.0923956951028</v>
       </c>
       <c r="N32" t="n">
         <v>611.4731152777874</v>
       </c>
       <c r="O32" t="n">
-        <v>567.2242807530952</v>
+        <v>567.2242807530943</v>
       </c>
       <c r="P32" t="n">
         <v>457.9332660842479</v>
       </c>
       <c r="Q32" t="n">
-        <v>309.9655846685955</v>
+        <v>309.9655846685956</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7844784071007</v>
+        <v>118.7844784071008</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>104.7496964779422</v>
+        <v>104.7496964779423</v>
       </c>
       <c r="K34" t="n">
-        <v>265.2189394091955</v>
+        <v>265.2189394091956</v>
       </c>
       <c r="L34" t="n">
-        <v>378.9286520350741</v>
+        <v>282.6086380611226</v>
       </c>
       <c r="M34" t="n">
-        <v>406.8046592583598</v>
+        <v>406.8046592583599</v>
       </c>
       <c r="N34" t="n">
-        <v>404.0282260324161</v>
+        <v>404.0282260324162</v>
       </c>
       <c r="O34" t="n">
-        <v>265.2043961135667</v>
+        <v>361.5244100875158</v>
       </c>
       <c r="P34" t="n">
-        <v>159.1217876959453</v>
+        <v>159.1217876959454</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.22256002501817</v>
+        <v>72.22256002501827</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37464,25 +37464,25 @@
         <v>109.6268955184478</v>
       </c>
       <c r="K37" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L37" t="n">
         <v>254.9673908567486</v>
       </c>
       <c r="M37" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N37" t="n">
-        <v>173.0392293230783</v>
+        <v>250.699962645506</v>
       </c>
       <c r="O37" t="n">
         <v>236.9961840848622</v>
       </c>
       <c r="P37" t="n">
-        <v>197.6352280591742</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.71201348257009</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
         <v>8.752567558057564</v>
@@ -37558,7 +37558,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193733</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
@@ -37698,31 +37698,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>109.6268955184476</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K40" t="n">
-        <v>196.9886134277717</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567484</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M40" t="n">
-        <v>266.8084387121429</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N40" t="n">
-        <v>270.723949551183</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O40" t="n">
-        <v>225.7247647372465</v>
+        <v>216.9721971791847</v>
       </c>
       <c r="P40" t="n">
-        <v>99.95050783106933</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>8.752567558057578</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129147</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.332299818266669</v>
+        <v>1.332299818266797</v>
       </c>
       <c r="J43" t="n">
-        <v>109.6268955184477</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K43" t="n">
-        <v>196.9886134277718</v>
+        <v>175.6323267038279</v>
       </c>
       <c r="L43" t="n">
-        <v>254.9673908567485</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M43" t="n">
-        <v>254.2047195462595</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511831</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848621</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106933</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>8.752567558057564</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554017</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38169,34 +38169,34 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.332299818266669</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>109.6268955184477</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K46" t="n">
-        <v>196.9886134277718</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L46" t="n">
-        <v>254.9673908567485</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M46" t="n">
-        <v>245.4521519882023</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511831</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O46" t="n">
-        <v>236.9961840848621</v>
+        <v>225.7247647372424</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106933</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057436</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
